--- a/public/cohort/fileExcel/xlsxUIT/GS PTA en onderwijsprogramma.xlsx
+++ b/public/cohort/fileExcel/xlsxUIT/GS PTA en onderwijsprogramma.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="97">
   <si>
     <t>betekenis kleuren</t>
   </si>
@@ -257,16 +257,10 @@
     <t>Tjdvak 1, 2, 3 en 4</t>
   </si>
   <si>
-    <t xml:space="preserve">A, B </t>
-  </si>
-  <si>
     <t>PW tijdvak 5 en 6</t>
   </si>
   <si>
     <t xml:space="preserve">Tijdvak 5 t/m 8, Thema slavernij; Rechtsstaat </t>
-  </si>
-  <si>
-    <t>A, B, C, D</t>
   </si>
   <si>
     <t>PW tijdvak 5 t/m 9</t>
@@ -275,28 +269,31 @@
     <t>Tijdvak 5 t/m 10, Thema Europese samenwerking</t>
   </si>
   <si>
-    <t>A, B, C</t>
+    <t>Historische context Britse Rijk 1585-1900; Tijdvak 5 t/m 8</t>
   </si>
   <si>
-    <t>Historische context Britse Rijk 1585-1900; Tijdvak 5 t/m 8</t>
+    <t xml:space="preserve">Historische context Duitsland 1918-1991; Tijdvak 5 t/m 10 ; thema Europese samenwerking </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Historische context Nederland. Tijdvak 5 t/m 10 1948-2008 </t>
   </si>
   <si>
     <t>A</t>
   </si>
   <si>
-    <t xml:space="preserve">Historische context Duitsland 1918-1991; Tijdvak 5 t/m 10 ; thema Europese samenwerking </t>
+    <t>so tijdvak 1 en 2</t>
   </si>
   <si>
-    <t>A, C</t>
+    <t>pw tijdvak 3 en 4 KA 1 t/m 4</t>
   </si>
   <si>
-    <t xml:space="preserve">Historische context Nederland. Tijdvak 5 t/m 10 1948-2008 </t>
+    <t>pw tijdvak 4 en 5 en KA  1 t/5</t>
   </si>
   <si>
     <t xml:space="preserve">Historische vaardigheden: Bronvaardigheden en oriÃ«ntatiekennis. De rol van personen in de geschiedenis. </t>
   </si>
   <si>
-    <t>C Thema: historische personen</t>
+    <t>proefwerk tijdvak 6 en KA 1 t/m 6</t>
   </si>
   <si>
     <t xml:space="preserve">PW Tijdvak 6 en 7 </t>
@@ -308,9 +305,6 @@
     <t>Historische vaardigheden: Bronvaardigheden en oriÃ«ntatiekennis</t>
   </si>
   <si>
-    <t>C: Keizers in verval, E</t>
-  </si>
-  <si>
     <t>PW Tijdvak 9 en 1 t/m 8</t>
   </si>
   <si>
@@ -320,19 +314,10 @@
     <t xml:space="preserve">Historische context: De Republiek en Verlichting. Tijdvak 1 t/m 7 </t>
   </si>
   <si>
-    <t>C: Amerikaanse Revolutie, C: Verlichting in de Republiek, C: Migratie</t>
-  </si>
-  <si>
     <t>Historische context: Duitsland. Tijdvak 1 t/m 9</t>
   </si>
   <si>
-    <t>C: Emancipatie, D: Staatsinrichting.</t>
-  </si>
-  <si>
     <t>Historische context: De Koude Oorlog. Tijdvak 1 t/m 10</t>
-  </si>
-  <si>
-    <t>C: Propaganda, E</t>
   </si>
 </sst>
 </file>
@@ -1349,36 +1334,34 @@
         <v>41</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="G6" s="27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H6" s="28" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="I6" s="27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J6" s="29" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="K6" s="30"/>
-      <c r="L6" s="27"/>
+      <c r="L6" s="27">
+        <v>30</v>
+      </c>
       <c r="M6" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="N6" s="31">
-        <v>1</v>
-      </c>
+      <c r="N6" s="31"/>
       <c r="O6" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P6" s="32" t="s">
-        <v>89</v>
-      </c>
+      <c r="P6" s="32"/>
     </row>
     <row r="7" spans="1:17" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
@@ -1389,22 +1372,28 @@
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
-      <c r="G7" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H7" s="28"/>
-      <c r="I7" s="27"/>
+      <c r="G7" s="27">
+        <v>1</v>
+      </c>
+      <c r="H7" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="I7" s="27">
+        <v>3</v>
+      </c>
       <c r="J7" s="29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K7" s="30"/>
-      <c r="L7" s="27"/>
+      <c r="L7" s="27">
+        <v>50</v>
+      </c>
       <c r="M7" s="27" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="N7" s="31"/>
       <c r="O7" s="31" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="P7" s="32"/>
     </row>
@@ -1417,22 +1406,28 @@
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
-      <c r="G8" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H8" s="28"/>
-      <c r="I8" s="27"/>
+      <c r="G8" s="27">
+        <v>2</v>
+      </c>
+      <c r="H8" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="I8" s="27">
+        <v>3</v>
+      </c>
       <c r="J8" s="29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K8" s="30"/>
-      <c r="L8" s="27"/>
+      <c r="L8" s="27">
+        <v>50</v>
+      </c>
       <c r="M8" s="27" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="N8" s="31"/>
       <c r="O8" s="31" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="P8" s="32"/>
     </row>
@@ -1446,22 +1441,28 @@
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
-      <c r="G9" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H9" s="28"/>
-      <c r="I9" s="27"/>
+      <c r="G9" s="27">
+        <v>3</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="I9" s="27">
+        <v>1</v>
+      </c>
       <c r="J9" s="29" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="K9" s="30"/>
       <c r="L9" s="27"/>
       <c r="M9" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N9" s="31"/>
+        <v>8</v>
+      </c>
+      <c r="N9" s="31">
+        <v>1</v>
+      </c>
       <c r="O9" s="31" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="P9" s="32"/>
     </row>
@@ -1471,26 +1472,32 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44334.633368056</v>
+        <v>44335.8084375</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
-      <c r="G10" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H10" s="28"/>
-      <c r="I10" s="27"/>
+      <c r="G10" s="27">
+        <v>4</v>
+      </c>
+      <c r="H10" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="I10" s="27">
+        <v>3</v>
+      </c>
       <c r="J10" s="29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K10" s="30"/>
-      <c r="L10" s="27"/>
+      <c r="L10" s="27">
+        <v>50</v>
+      </c>
       <c r="M10" s="27" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="N10" s="31"/>
       <c r="O10" s="31" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="P10" s="32"/>
     </row>
@@ -2223,7 +2230,7 @@
         <v>41</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -2337,7 +2344,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44334.633368056</v>
+        <v>44335.8084375</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -2492,7 +2499,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="28" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I18" s="27">
         <v>3</v>
@@ -2511,9 +2518,7 @@
       <c r="O18" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P18" s="32">
-        <v>0</v>
-      </c>
+      <c r="P18" s="32"/>
     </row>
     <row r="19" spans="1:17" customHeight="1" ht="72">
       <c r="D19" s="2"/>
@@ -2522,7 +2527,7 @@
         <v>2</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I19" s="27">
         <v>3</v>
@@ -2541,9 +2546,7 @@
       <c r="O19" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P19" s="32">
-        <v>0</v>
-      </c>
+      <c r="P19" s="32"/>
     </row>
     <row r="20" spans="1:17" customHeight="1" ht="72">
       <c r="D20" s="2"/>
@@ -2552,7 +2555,7 @@
         <v>3</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I20" s="27">
         <v>2</v>
@@ -2571,9 +2574,7 @@
       <c r="O20" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P20" s="32" t="s">
-        <v>93</v>
-      </c>
+      <c r="P20" s="32"/>
     </row>
     <row r="21" spans="1:17" customHeight="1" ht="72">
       <c r="D21" s="2"/>
@@ -2582,7 +2583,7 @@
         <v>3</v>
       </c>
       <c r="H21" s="28" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I21" s="27">
         <v>3</v>
@@ -2601,9 +2602,7 @@
       <c r="O21" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P21" s="32">
-        <v>0</v>
-      </c>
+      <c r="P21" s="32"/>
     </row>
     <row r="22" spans="1:17" customHeight="1" ht="72">
       <c r="D22" s="2"/>
@@ -2612,7 +2611,7 @@
         <v>4</v>
       </c>
       <c r="H22" s="28" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I22" s="27">
         <v>3</v>
@@ -2631,9 +2630,7 @@
       <c r="O22" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P22" s="32">
-        <v>0</v>
-      </c>
+      <c r="P22" s="32"/>
     </row>
     <row r="23" spans="1:17" customHeight="1" ht="72">
       <c r="D23" s="2"/>
@@ -3129,7 +3126,7 @@
         <v>41</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -3243,7 +3240,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44334.633368056</v>
+        <v>44335.8084375</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -3603,7 +3600,7 @@
         <v>1</v>
       </c>
       <c r="H30" s="28" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I30" s="27"/>
       <c r="J30" s="29" t="s">
@@ -3622,9 +3619,7 @@
       <c r="O30" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P30" s="32" t="s">
-        <v>97</v>
-      </c>
+      <c r="P30" s="32"/>
     </row>
     <row r="31" spans="1:17" customHeight="1" ht="72">
       <c r="D31" s="2"/>
@@ -3633,7 +3628,7 @@
         <v>2</v>
       </c>
       <c r="H31" s="28" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="I31" s="27"/>
       <c r="J31" s="29" t="s">
@@ -3652,9 +3647,7 @@
       <c r="O31" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P31" s="32" t="s">
-        <v>99</v>
-      </c>
+      <c r="P31" s="32"/>
     </row>
     <row r="32" spans="1:17" customHeight="1" ht="72">
       <c r="D32" s="2"/>
@@ -3663,7 +3656,7 @@
         <v>3</v>
       </c>
       <c r="H32" s="28" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="I32" s="27"/>
       <c r="J32" s="29" t="s">
@@ -3682,9 +3675,7 @@
       <c r="O32" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P32" s="32" t="s">
-        <v>101</v>
-      </c>
+      <c r="P32" s="32"/>
     </row>
     <row r="33" spans="1:17" customHeight="1" ht="72">
       <c r="D33" s="2"/>
@@ -4123,7 +4114,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44334.633368056</v>
+        <v>44335.8084375</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -5078,7 +5069,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44334.633368056</v>
+        <v>44335.8084375</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -5894,7 +5885,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44334.633368056</v>
+        <v>44335.8084375</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -6710,7 +6701,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44334.633368056</v>
+        <v>44335.8084375</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -7449,9 +7440,7 @@
       <c r="O6" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P6" s="32" t="s">
-        <v>76</v>
-      </c>
+      <c r="P6" s="32"/>
     </row>
     <row r="7" spans="1:17" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
@@ -7466,7 +7455,7 @@
         <v>1</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I7" s="27">
         <v>2</v>
@@ -7485,9 +7474,7 @@
       <c r="O7" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P7" s="32">
-        <v>0</v>
-      </c>
+      <c r="P7" s="32"/>
     </row>
     <row r="8" spans="1:17" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
@@ -7502,7 +7489,7 @@
         <v>2</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I8" s="27">
         <v>2</v>
@@ -7523,9 +7510,7 @@
       <c r="O8" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P8" s="32" t="s">
-        <v>79</v>
-      </c>
+      <c r="P8" s="32"/>
     </row>
     <row r="9" spans="1:17" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
@@ -7541,7 +7526,7 @@
         <v>3</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I9" s="27">
         <v>2</v>
@@ -7560,9 +7545,7 @@
       <c r="O9" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P9" s="32">
-        <v>0</v>
-      </c>
+      <c r="P9" s="32"/>
     </row>
     <row r="10" spans="1:17" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
@@ -7570,7 +7553,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44334.633368056</v>
+        <v>44335.8084375</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -7578,7 +7561,7 @@
         <v>4</v>
       </c>
       <c r="H10" s="28" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I10" s="27">
         <v>2</v>
@@ -7599,9 +7582,7 @@
       <c r="O10" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P10" s="32" t="s">
-        <v>82</v>
-      </c>
+      <c r="P10" s="32"/>
     </row>
     <row r="11" spans="1:17" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
@@ -8446,7 +8427,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44334.633368056</v>
+        <v>44335.8084375</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -8601,7 +8582,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="28" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="I18" s="27"/>
       <c r="J18" s="29" t="s">
@@ -8620,9 +8601,7 @@
       <c r="O18" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P18" s="32" t="s">
-        <v>84</v>
-      </c>
+      <c r="P18" s="32"/>
     </row>
     <row r="19" spans="1:17" customHeight="1" ht="72">
       <c r="D19" s="2"/>
@@ -8631,7 +8610,7 @@
         <v>2</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="I19" s="27"/>
       <c r="J19" s="29" t="s">
@@ -8650,9 +8629,7 @@
       <c r="O19" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P19" s="32" t="s">
-        <v>86</v>
-      </c>
+      <c r="P19" s="32"/>
     </row>
     <row r="20" spans="1:17" customHeight="1" ht="72">
       <c r="D20" s="2"/>
@@ -8661,7 +8638,7 @@
         <v>3</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="I20" s="27"/>
       <c r="J20" s="29" t="s">
@@ -8680,9 +8657,7 @@
       <c r="O20" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P20" s="32" t="s">
-        <v>84</v>
-      </c>
+      <c r="P20" s="32"/>
     </row>
     <row r="21" spans="1:17" customHeight="1" ht="72">
       <c r="D21" s="2"/>
@@ -9326,7 +9301,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44334.633368056</v>
+        <v>44335.8084375</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>

--- a/public/cohort/fileExcel/xlsxUIT/GS PTA en onderwijsprogramma.xlsx
+++ b/public/cohort/fileExcel/xlsxUIT/GS PTA en onderwijsprogramma.xlsx
@@ -290,7 +290,7 @@
     <t>pw tijdvak 4 en 5 en KA  1 t/5</t>
   </si>
   <si>
-    <t xml:space="preserve">Historische vaardigheden: Bronvaardigheden en oriÃ«ntatiekennis. De rol van personen in de geschiedenis. </t>
+    <t xml:space="preserve">Historische vaardigheden: Bronvaardigheden en oriëntatiekennis. De rol van personen in de geschiedenis. </t>
   </si>
   <si>
     <t>proefwerk tijdvak 6 en KA 1 t/m 6</t>
@@ -302,7 +302,7 @@
     <t>PW Tijdvak 8 en 1 t/m 7</t>
   </si>
   <si>
-    <t>Historische vaardigheden: Bronvaardigheden en oriÃ«ntatiekennis</t>
+    <t>Historische vaardigheden: Bronvaardigheden en oriëntatiekennis</t>
   </si>
   <si>
     <t>PW Tijdvak 9 en 1 t/m 8</t>
@@ -1336,7 +1336,9 @@
       <c r="B6" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="D6" s="2">
+        <v>138</v>
+      </c>
       <c r="E6" s="2"/>
       <c r="G6" s="27">
         <v>1</v>
@@ -1370,7 +1372,9 @@
       <c r="B7" s="2">
         <v>2020</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="2">
+        <v>139</v>
+      </c>
       <c r="E7" s="2"/>
       <c r="G7" s="27">
         <v>1</v>
@@ -1404,7 +1408,9 @@
       <c r="B8" s="2">
         <v>28</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="2">
+        <v>140</v>
+      </c>
       <c r="E8" s="2"/>
       <c r="G8" s="27">
         <v>2</v>
@@ -1439,7 +1445,9 @@
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
         <v>2023</v>
       </c>
-      <c r="D9" s="2"/>
+      <c r="D9" s="2">
+        <v>141</v>
+      </c>
       <c r="E9" s="2"/>
       <c r="G9" s="27">
         <v>3</v>
@@ -1472,9 +1480,11 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44335.8084375</v>
-      </c>
-      <c r="D10" s="2"/>
+        <v>44336.445729167</v>
+      </c>
+      <c r="D10" s="2">
+        <v>142</v>
+      </c>
       <c r="E10" s="2"/>
       <c r="G10" s="27">
         <v>4</v>
@@ -1550,7 +1560,9 @@
       <c r="C13" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" s="2">
+        <v>67</v>
+      </c>
       <c r="G13" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  GS leerlaag A4 (schooljaar 2020 - 2021)</v>
@@ -1570,9 +1582,7 @@
         <f>4+B11-B7</f>
         <v>4</v>
       </c>
-      <c r="G14" s="34">
-        <v>0</v>
-      </c>
+      <c r="G14" s="34"/>
       <c r="H14" s="34"/>
       <c r="I14" s="34"/>
       <c r="J14" s="34"/>
@@ -1764,7 +1774,9 @@
       <c r="C25" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="2"/>
+      <c r="D25" s="2">
+        <v>68</v>
+      </c>
       <c r="G25" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  GS leerlaag A5 (schooljaar 2021 - 2022)</v>
@@ -1969,7 +1981,9 @@
       <c r="C37" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D37" s="2"/>
+      <c r="D37" s="2">
+        <v>69</v>
+      </c>
       <c r="G37" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  GS leerlaag A6 (schooljaar 2022 - 2023)</v>
@@ -2344,7 +2358,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44335.8084375</v>
+        <v>44336.445729167</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -2416,7 +2430,9 @@
       <c r="C13" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" s="2">
+        <v>70</v>
+      </c>
       <c r="G13" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  GS leerlaag A4 (schooljaar 2019 - 2020)</v>
@@ -2493,7 +2509,9 @@
       </c>
     </row>
     <row r="18" spans="1:17" customHeight="1" ht="72">
-      <c r="D18" s="2"/>
+      <c r="D18" s="2">
+        <v>143</v>
+      </c>
       <c r="E18" s="2"/>
       <c r="G18" s="27">
         <v>1</v>
@@ -2521,7 +2539,9 @@
       <c r="P18" s="32"/>
     </row>
     <row r="19" spans="1:17" customHeight="1" ht="72">
-      <c r="D19" s="2"/>
+      <c r="D19" s="2">
+        <v>144</v>
+      </c>
       <c r="E19" s="2"/>
       <c r="G19" s="27">
         <v>2</v>
@@ -2549,7 +2569,9 @@
       <c r="P19" s="32"/>
     </row>
     <row r="20" spans="1:17" customHeight="1" ht="72">
-      <c r="D20" s="2"/>
+      <c r="D20" s="2">
+        <v>145</v>
+      </c>
       <c r="E20" s="2"/>
       <c r="G20" s="27">
         <v>3</v>
@@ -2577,7 +2599,9 @@
       <c r="P20" s="32"/>
     </row>
     <row r="21" spans="1:17" customHeight="1" ht="72">
-      <c r="D21" s="2"/>
+      <c r="D21" s="2">
+        <v>146</v>
+      </c>
       <c r="E21" s="2"/>
       <c r="G21" s="27">
         <v>3</v>
@@ -2605,7 +2629,9 @@
       <c r="P21" s="32"/>
     </row>
     <row r="22" spans="1:17" customHeight="1" ht="72">
-      <c r="D22" s="2"/>
+      <c r="D22" s="2">
+        <v>147</v>
+      </c>
       <c r="E22" s="2"/>
       <c r="G22" s="27">
         <v>4</v>
@@ -2658,7 +2684,9 @@
       <c r="C25" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="2"/>
+      <c r="D25" s="2">
+        <v>71</v>
+      </c>
       <c r="G25" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  GS leerlaag A5 (schooljaar 2020 - 2021)</v>
@@ -2671,9 +2699,7 @@
       <c r="M25" s="33"/>
     </row>
     <row r="26" spans="1:17" customHeight="1" ht="72">
-      <c r="G26" s="34">
-        <v>0</v>
-      </c>
+      <c r="G26" s="34"/>
       <c r="H26" s="34"/>
       <c r="I26" s="34"/>
       <c r="J26" s="34"/>
@@ -2865,7 +2891,9 @@
       <c r="C37" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D37" s="2"/>
+      <c r="D37" s="2">
+        <v>72</v>
+      </c>
       <c r="G37" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  GS leerlaag A6 (schooljaar 2021 - 2022)</v>
@@ -3240,7 +3268,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44335.8084375</v>
+        <v>44336.445729167</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -3312,7 +3340,9 @@
       <c r="C13" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" s="2">
+        <v>73</v>
+      </c>
       <c r="G13" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  GS leerlaag A4 (schooljaar 2018 - 2019)</v>
@@ -3524,7 +3554,9 @@
       <c r="C25" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="2"/>
+      <c r="D25" s="2">
+        <v>74</v>
+      </c>
       <c r="G25" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  GS leerlaag A5 (schooljaar 2019 - 2020)</v>
@@ -3594,7 +3626,9 @@
       </c>
     </row>
     <row r="30" spans="1:17" customHeight="1" ht="72">
-      <c r="D30" s="2"/>
+      <c r="D30" s="2">
+        <v>148</v>
+      </c>
       <c r="E30" s="2"/>
       <c r="G30" s="27">
         <v>1</v>
@@ -3622,7 +3656,9 @@
       <c r="P30" s="32"/>
     </row>
     <row r="31" spans="1:17" customHeight="1" ht="72">
-      <c r="D31" s="2"/>
+      <c r="D31" s="2">
+        <v>149</v>
+      </c>
       <c r="E31" s="2"/>
       <c r="G31" s="27">
         <v>2</v>
@@ -3650,7 +3686,9 @@
       <c r="P31" s="32"/>
     </row>
     <row r="32" spans="1:17" customHeight="1" ht="72">
-      <c r="D32" s="2"/>
+      <c r="D32" s="2">
+        <v>150</v>
+      </c>
       <c r="E32" s="2"/>
       <c r="G32" s="27">
         <v>3</v>
@@ -3747,7 +3785,9 @@
       <c r="C37" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D37" s="2"/>
+      <c r="D37" s="2">
+        <v>75</v>
+      </c>
       <c r="G37" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  GS leerlaag A6 (schooljaar 2020 - 2021)</v>
@@ -3760,9 +3800,7 @@
       <c r="M37" s="33"/>
     </row>
     <row r="38" spans="1:17" customHeight="1" ht="72">
-      <c r="G38" s="34">
-        <v>0</v>
-      </c>
+      <c r="G38" s="34"/>
       <c r="H38" s="34"/>
       <c r="I38" s="34"/>
       <c r="J38" s="34"/>
@@ -4114,7 +4152,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44335.8084375</v>
+        <v>44336.445729167</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -5069,7 +5107,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44335.8084375</v>
+        <v>44336.445729167</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -5885,7 +5923,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44335.8084375</v>
+        <v>44336.445729167</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -6701,7 +6739,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44335.8084375</v>
+        <v>44336.445729167</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -7415,7 +7453,9 @@
       <c r="B6" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="D6" s="2">
+        <v>130</v>
+      </c>
       <c r="E6" s="2"/>
       <c r="G6" s="27">
         <v>1</v>
@@ -7449,7 +7489,9 @@
       <c r="B7" s="2">
         <v>2020</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="2">
+        <v>131</v>
+      </c>
       <c r="E7" s="2"/>
       <c r="G7" s="27">
         <v>1</v>
@@ -7483,7 +7525,9 @@
       <c r="B8" s="2">
         <v>26</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="2">
+        <v>132</v>
+      </c>
       <c r="E8" s="2"/>
       <c r="G8" s="27">
         <v>2</v>
@@ -7520,7 +7564,9 @@
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
         <v>2022</v>
       </c>
-      <c r="D9" s="2"/>
+      <c r="D9" s="2">
+        <v>133</v>
+      </c>
       <c r="E9" s="2"/>
       <c r="G9" s="27">
         <v>3</v>
@@ -7553,9 +7599,11 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44335.8084375</v>
-      </c>
-      <c r="D10" s="2"/>
+        <v>44336.445729167</v>
+      </c>
+      <c r="D10" s="2">
+        <v>134</v>
+      </c>
       <c r="E10" s="2"/>
       <c r="G10" s="27">
         <v>4</v>
@@ -7633,7 +7681,9 @@
       <c r="C13" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" s="2">
+        <v>63</v>
+      </c>
       <c r="G13" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  GS leerlaag H4 (schooljaar 2020 - 2021)</v>
@@ -7653,9 +7703,7 @@
         <f>4+B11-B7</f>
         <v>4</v>
       </c>
-      <c r="G14" s="34">
-        <v>0</v>
-      </c>
+      <c r="G14" s="34"/>
       <c r="H14" s="34"/>
       <c r="I14" s="34"/>
       <c r="J14" s="34"/>
@@ -7847,7 +7895,9 @@
       <c r="C25" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="2"/>
+      <c r="D25" s="2">
+        <v>64</v>
+      </c>
       <c r="G25" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  GS leerlaag H5 (schooljaar 2021 - 2022)</v>
@@ -8427,7 +8477,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44335.8084375</v>
+        <v>44336.445729167</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -8499,7 +8549,9 @@
       <c r="C13" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" s="2">
+        <v>65</v>
+      </c>
       <c r="G13" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  GS leerlaag H4 (schooljaar 2019 - 2020)</v>
@@ -8576,7 +8628,9 @@
       </c>
     </row>
     <row r="18" spans="1:17" customHeight="1" ht="72">
-      <c r="D18" s="2"/>
+      <c r="D18" s="2">
+        <v>135</v>
+      </c>
       <c r="E18" s="2"/>
       <c r="G18" s="27">
         <v>1</v>
@@ -8604,7 +8658,9 @@
       <c r="P18" s="32"/>
     </row>
     <row r="19" spans="1:17" customHeight="1" ht="72">
-      <c r="D19" s="2"/>
+      <c r="D19" s="2">
+        <v>136</v>
+      </c>
       <c r="E19" s="2"/>
       <c r="G19" s="27">
         <v>2</v>
@@ -8632,7 +8688,9 @@
       <c r="P19" s="32"/>
     </row>
     <row r="20" spans="1:17" customHeight="1" ht="72">
-      <c r="D20" s="2"/>
+      <c r="D20" s="2">
+        <v>137</v>
+      </c>
       <c r="E20" s="2"/>
       <c r="G20" s="27">
         <v>3</v>
@@ -8729,7 +8787,9 @@
       <c r="C25" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="2"/>
+      <c r="D25" s="2">
+        <v>66</v>
+      </c>
       <c r="G25" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  GS leerlaag H5 (schooljaar 2020 - 2021)</v>
@@ -8742,9 +8802,7 @@
       <c r="M25" s="33"/>
     </row>
     <row r="26" spans="1:17" customHeight="1" ht="72">
-      <c r="G26" s="34">
-        <v>0</v>
-      </c>
+      <c r="G26" s="34"/>
       <c r="H26" s="34"/>
       <c r="I26" s="34"/>
       <c r="J26" s="34"/>
@@ -9301,7 +9359,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44335.8084375</v>
+        <v>44336.445729167</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>

--- a/public/cohort/fileExcel/xlsxUIT/GS PTA en onderwijsprogramma.xlsx
+++ b/public/cohort/fileExcel/xlsxUIT/GS PTA en onderwijsprogramma.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <workbookProtection lockRevision="false" lockStructure="true" lockWindows="false"/>
   <bookViews>
-    <workbookView activeTab="11" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="12" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet name="instellingen" sheetId="1" r:id="rId4"/>
@@ -13,13 +13,14 @@
     <sheet name="wensen" sheetId="3" r:id="rId6"/>
     <sheet name="M 2021" sheetId="4" r:id="rId7"/>
     <sheet name="M 2020" sheetId="5" r:id="rId8"/>
-    <sheet name="H 2021" sheetId="6" r:id="rId9"/>
-    <sheet name="H 2020" sheetId="7" r:id="rId10"/>
-    <sheet name="H 2019" sheetId="8" r:id="rId11"/>
-    <sheet name="A 2021" sheetId="9" r:id="rId12"/>
-    <sheet name="A 2020" sheetId="10" r:id="rId13"/>
-    <sheet name="A 2019" sheetId="11" r:id="rId14"/>
-    <sheet name="A 2018" sheetId="12" r:id="rId15"/>
+    <sheet name="M 2019" sheetId="6" r:id="rId9"/>
+    <sheet name="H 2021" sheetId="7" r:id="rId10"/>
+    <sheet name="H 2020" sheetId="8" r:id="rId11"/>
+    <sheet name="H 2019" sheetId="9" r:id="rId12"/>
+    <sheet name="A 2021" sheetId="10" r:id="rId13"/>
+    <sheet name="A 2020" sheetId="11" r:id="rId14"/>
+    <sheet name="A 2019" sheetId="12" r:id="rId15"/>
+    <sheet name="A 2018" sheetId="13" r:id="rId16"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="113">
   <si>
     <t>betekenis kleuren</t>
   </si>
@@ -251,36 +252,69 @@
     <t>GS</t>
   </si>
   <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>Staatsinrichting. De industriële samenleving in Nederland</t>
+  </si>
+  <si>
+    <t>GS/K/1, GS/K/2, GS/K/3, GS/K/5, GS/K/6, GS/V/7</t>
+  </si>
+  <si>
+    <t>Historisch overzicht vanaf 1900</t>
+  </si>
+  <si>
+    <t>GS/K/1, GS/K/2, GS/K/3, GS/V/7</t>
+  </si>
+  <si>
+    <t>Historisch overzicht vanaf 1900. Koude Oorlog. Cultureel-mentale ontwikkeling in Nederland vanaf 1945</t>
+  </si>
+  <si>
+    <t>GS/K/1, GS/K/2, GS/K/3, GS/K/8, GS/K/9, GS/V/7</t>
+  </si>
+  <si>
     <t>H</t>
   </si>
   <si>
     <t>Tjdvak 1, 2, 3 en 4</t>
   </si>
   <si>
+    <t xml:space="preserve">A, B </t>
+  </si>
+  <si>
     <t>PW tijdvak 5 en 6</t>
   </si>
   <si>
     <t xml:space="preserve">Tijdvak 5 t/m 8, Thema slavernij; Rechtsstaat </t>
   </si>
   <si>
+    <t>A, B, C, D</t>
+  </si>
+  <si>
     <t>PW tijdvak 5 t/m 9</t>
   </si>
   <si>
     <t>Tijdvak 5 t/m 10, Thema Europese samenwerking</t>
   </si>
   <si>
+    <t>A, B, C</t>
+  </si>
+  <si>
     <t>Historische context Britse Rijk 1585-1900; Tijdvak 5 t/m 8</t>
   </si>
   <si>
+    <t>A</t>
+  </si>
+  <si>
     <t xml:space="preserve">Historische context Duitsland 1918-1991; Tijdvak 5 t/m 10 ; thema Europese samenwerking </t>
   </si>
   <si>
+    <t>A, C</t>
+  </si>
+  <si>
     <t xml:space="preserve">Historische context Nederland. Tijdvak 5 t/m 10 1948-2008 </t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
     <t>so tijdvak 1 en 2</t>
   </si>
   <si>
@@ -293,6 +327,9 @@
     <t xml:space="preserve">Historische vaardigheden: Bronvaardigheden en oriëntatiekennis. De rol van personen in de geschiedenis. </t>
   </si>
   <si>
+    <t>C Thema: historische personen</t>
+  </si>
+  <si>
     <t>proefwerk tijdvak 6 en KA 1 t/m 6</t>
   </si>
   <si>
@@ -305,6 +342,9 @@
     <t>Historische vaardigheden: Bronvaardigheden en oriëntatiekennis</t>
   </si>
   <si>
+    <t>C: Keizers in verval, E</t>
+  </si>
+  <si>
     <t>PW Tijdvak 9 en 1 t/m 8</t>
   </si>
   <si>
@@ -314,10 +354,19 @@
     <t xml:space="preserve">Historische context: De Republiek en Verlichting. Tijdvak 1 t/m 7 </t>
   </si>
   <si>
+    <t>C: Amerikaanse Revolutie, C: Verlichting in de Republiek, C: Migratie</t>
+  </si>
+  <si>
     <t>Historische context: Duitsland. Tijdvak 1 t/m 9</t>
   </si>
   <si>
+    <t>C: Emancipatie, D: Staatsinrichting.</t>
+  </si>
+  <si>
     <t>Historische context: De Koude Oorlog. Tijdvak 1 t/m 10</t>
+  </si>
+  <si>
+    <t>C: Propaganda, E</t>
   </si>
 </sst>
 </file>
@@ -1246,12 +1295,12 @@
       <c r="A2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>72</v>
+      <c r="B2" s="2">
+        <v>0</v>
       </c>
       <c r="G2" s="35" t="str">
         <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
-        <v>Dit is het programma van de huidige A4 (cohort 2020 - 2023)</v>
+        <v>verouderd PTA</v>
       </c>
       <c r="H2" s="35"/>
       <c r="I2" s="35"/>
@@ -1273,25 +1322,21 @@
       <c r="A4" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>73</v>
-      </c>
+      <c r="B4" s="2"/>
       <c r="C4" s="9" t="s">
         <v>28</v>
       </c>
       <c r="D4" s="2"/>
       <c r="G4" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"4 (schooljaar ",B7," - ",B7+1,")")</f>
-        <v>GS leerlaag A4 (schooljaar 2020 - 2021)</v>
+        <v> leerlaag 4 (schooljaar  - 1)</v>
       </c>
     </row>
     <row r="5" spans="1:17" customHeight="1" ht="34.5">
       <c r="A5" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="2">
-        <v>21</v>
-      </c>
+      <c r="B5" s="2"/>
       <c r="D5" s="7" t="s">
         <v>30</v>
       </c>
@@ -1333,35 +1378,25 @@
       <c r="A6" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D6" s="2">
-        <v>138</v>
-      </c>
+      <c r="B6" s="2"/>
+      <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="G6" s="27">
-        <v>1</v>
-      </c>
-      <c r="H6" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="I6" s="27">
-        <v>2</v>
-      </c>
+      <c r="G6" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="28"/>
+      <c r="I6" s="27"/>
       <c r="J6" s="29" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K6" s="30"/>
-      <c r="L6" s="27">
-        <v>30</v>
-      </c>
+      <c r="L6" s="27"/>
       <c r="M6" s="27" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N6" s="31"/>
       <c r="O6" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P6" s="32"/>
     </row>
@@ -1369,35 +1404,25 @@
       <c r="A7" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="2">
-        <v>2020</v>
-      </c>
-      <c r="D7" s="2">
-        <v>139</v>
-      </c>
+      <c r="B7" s="2"/>
+      <c r="D7" s="2"/>
       <c r="E7" s="2"/>
-      <c r="G7" s="27">
-        <v>1</v>
-      </c>
-      <c r="H7" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="I7" s="27">
-        <v>3</v>
-      </c>
+      <c r="G7" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="28"/>
+      <c r="I7" s="27"/>
       <c r="J7" s="29" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K7" s="30"/>
-      <c r="L7" s="27">
-        <v>50</v>
-      </c>
+      <c r="L7" s="27"/>
       <c r="M7" s="27" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N7" s="31"/>
       <c r="O7" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P7" s="32"/>
     </row>
@@ -1405,35 +1430,25 @@
       <c r="A8" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="2">
-        <v>28</v>
-      </c>
-      <c r="D8" s="2">
-        <v>140</v>
-      </c>
+      <c r="B8" s="2"/>
+      <c r="D8" s="2"/>
       <c r="E8" s="2"/>
-      <c r="G8" s="27">
-        <v>2</v>
-      </c>
-      <c r="H8" s="28" t="s">
-        <v>86</v>
-      </c>
-      <c r="I8" s="27">
-        <v>3</v>
-      </c>
+      <c r="G8" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H8" s="28"/>
+      <c r="I8" s="27"/>
       <c r="J8" s="29" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K8" s="30"/>
-      <c r="L8" s="27">
-        <v>50</v>
-      </c>
+      <c r="L8" s="27"/>
       <c r="M8" s="27" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N8" s="31"/>
       <c r="O8" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P8" s="32"/>
     </row>
@@ -1443,34 +1458,26 @@
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
-        <v>2023</v>
-      </c>
-      <c r="D9" s="2">
-        <v>141</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D9" s="2"/>
       <c r="E9" s="2"/>
-      <c r="G9" s="27">
-        <v>3</v>
-      </c>
-      <c r="H9" s="28" t="s">
-        <v>87</v>
-      </c>
-      <c r="I9" s="27">
-        <v>1</v>
-      </c>
+      <c r="G9" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="28"/>
+      <c r="I9" s="27"/>
       <c r="J9" s="29" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="K9" s="30"/>
       <c r="L9" s="27"/>
       <c r="M9" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N9" s="31">
-        <v>1</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N9" s="31"/>
       <c r="O9" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P9" s="32"/>
     </row>
@@ -1480,34 +1487,26 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44336.445729167</v>
-      </c>
-      <c r="D10" s="2">
-        <v>142</v>
-      </c>
+        <v>44340.444085648</v>
+      </c>
+      <c r="D10" s="2"/>
       <c r="E10" s="2"/>
-      <c r="G10" s="27">
-        <v>4</v>
-      </c>
-      <c r="H10" s="28" t="s">
-        <v>88</v>
-      </c>
-      <c r="I10" s="27">
-        <v>3</v>
-      </c>
+      <c r="G10" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" s="28"/>
+      <c r="I10" s="27"/>
       <c r="J10" s="29" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K10" s="30"/>
-      <c r="L10" s="27">
-        <v>50</v>
-      </c>
+      <c r="L10" s="27"/>
       <c r="M10" s="27" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N10" s="31"/>
       <c r="O10" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P10" s="32"/>
     </row>
@@ -1555,17 +1554,15 @@
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
-        <v>0</v>
+        <v>-2020</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="2">
-        <v>67</v>
-      </c>
+      <c r="D13" s="2"/>
       <c r="G13" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  GS leerlaag A4 (schooljaar 2020 - 2021)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van   leerlaag 4 (schooljaar  - 1)</v>
       </c>
       <c r="H13" s="33"/>
       <c r="I13" s="33"/>
@@ -1580,7 +1577,7 @@
       </c>
       <c r="B14" s="7">
         <f>4+B11-B7</f>
-        <v>4</v>
+        <v>2024</v>
       </c>
       <c r="G14" s="34"/>
       <c r="H14" s="34"/>
@@ -1597,7 +1594,7 @@
       <c r="D16" s="2"/>
       <c r="G16" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"5 (schooljaar ",B7+1," - ",B7+2,")")</f>
-        <v>GS leerlaag A5 (schooljaar 2021 - 2022)</v>
+        <v> leerlaag 5 (schooljaar 1 - 2)</v>
       </c>
     </row>
     <row r="17" spans="1:17" customHeight="1" ht="34.5">
@@ -1774,12 +1771,10 @@
       <c r="C25" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="2">
-        <v>68</v>
-      </c>
+      <c r="D25" s="2"/>
       <c r="G25" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  GS leerlaag A5 (schooljaar 2021 - 2022)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van   leerlaag 5 (schooljaar 1 - 2)</v>
       </c>
       <c r="H25" s="33"/>
       <c r="I25" s="33"/>
@@ -1804,7 +1799,7 @@
       <c r="D28" s="2"/>
       <c r="G28" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"6 (schooljaar ",B7+2," - ",B9,")")</f>
-        <v>GS leerlaag A6 (schooljaar 2022 - 2023)</v>
+        <v> leerlaag 6 (schooljaar 2 - 1)</v>
       </c>
     </row>
     <row r="29" spans="1:17" customHeight="1" ht="34.5">
@@ -1981,12 +1976,10 @@
       <c r="C37" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D37" s="2">
-        <v>69</v>
-      </c>
+      <c r="D37" s="2"/>
       <c r="G37" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  GS leerlaag A6 (schooljaar 2022 - 2023)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van   leerlaag 6 (schooljaar 2 - 1)</v>
       </c>
       <c r="H37" s="33"/>
       <c r="I37" s="33"/>
@@ -2060,44 +2053,6 @@
       <formula>ISBLANK($O30)</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="12">
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G6:G11">
-      <formula1>instellingen!$G$2:$G$6</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G18:G23">
-      <formula1>instellingen!$G$2:$G$6</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G30:G35">
-      <formula1>instellingen!$G$2:$G$6</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J6:J11">
-      <formula1>instellingen!$H$2:$H$7</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J18:J23">
-      <formula1>instellingen!$H$2:$H$7</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J30:J35">
-      <formula1>instellingen!$H$2:$H$7</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M6:M11">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M18:M23">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M30:M35">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O6:O11">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O18:O23">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O30:O35">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-  </dataValidations>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" r:id="rId1"/>
@@ -2161,7 +2116,7 @@
       </c>
       <c r="G2" s="35" t="str">
         <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
-        <v>Dit is het programma van de huidige A5 (cohort 2019 - 2022)</v>
+        <v>Dit is het programma van de huidige A4 (cohort 2020 - 2023)</v>
       </c>
       <c r="H2" s="35"/>
       <c r="I2" s="35"/>
@@ -2192,7 +2147,7 @@
       <c r="D4" s="2"/>
       <c r="G4" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"4 (schooljaar ",B7," - ",B7+1,")")</f>
-        <v>GS leerlaag A4 (schooljaar 2019 - 2020)</v>
+        <v>GS leerlaag A4 (schooljaar 2020 - 2021)</v>
       </c>
     </row>
     <row r="5" spans="1:17" customHeight="1" ht="34.5">
@@ -2244,26 +2199,34 @@
         <v>41</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D6" s="2"/>
+        <v>91</v>
+      </c>
+      <c r="D6" s="2">
+        <v>138</v>
+      </c>
       <c r="E6" s="2"/>
-      <c r="G6" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6" s="28"/>
-      <c r="I6" s="27"/>
+      <c r="G6" s="27">
+        <v>1</v>
+      </c>
+      <c r="H6" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="I6" s="27">
+        <v>2</v>
+      </c>
       <c r="J6" s="29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K6" s="30"/>
-      <c r="L6" s="27"/>
+      <c r="L6" s="27">
+        <v>30</v>
+      </c>
       <c r="M6" s="27" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N6" s="31"/>
-      <c r="O6" s="31" t="s">
-        <v>5</v>
+      <c r="O6" s="31">
+        <v>0</v>
       </c>
       <c r="P6" s="32"/>
     </row>
@@ -2272,26 +2235,34 @@
         <v>42</v>
       </c>
       <c r="B7" s="2">
-        <v>2019</v>
-      </c>
-      <c r="D7" s="2"/>
+        <v>2020</v>
+      </c>
+      <c r="D7" s="2">
+        <v>139</v>
+      </c>
       <c r="E7" s="2"/>
-      <c r="G7" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H7" s="28"/>
-      <c r="I7" s="27"/>
+      <c r="G7" s="27">
+        <v>1</v>
+      </c>
+      <c r="H7" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="I7" s="27">
+        <v>3</v>
+      </c>
       <c r="J7" s="29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K7" s="30"/>
-      <c r="L7" s="27"/>
+      <c r="L7" s="27">
+        <v>50</v>
+      </c>
       <c r="M7" s="27" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N7" s="31"/>
-      <c r="O7" s="31" t="s">
-        <v>5</v>
+      <c r="O7" s="31">
+        <v>0</v>
       </c>
       <c r="P7" s="32"/>
     </row>
@@ -2300,26 +2271,34 @@
         <v>43</v>
       </c>
       <c r="B8" s="2">
-        <v>29</v>
-      </c>
-      <c r="D8" s="2"/>
+        <v>28</v>
+      </c>
+      <c r="D8" s="2">
+        <v>140</v>
+      </c>
       <c r="E8" s="2"/>
-      <c r="G8" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H8" s="28"/>
-      <c r="I8" s="27"/>
+      <c r="G8" s="27">
+        <v>2</v>
+      </c>
+      <c r="H8" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="I8" s="27">
+        <v>3</v>
+      </c>
       <c r="J8" s="29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K8" s="30"/>
-      <c r="L8" s="27"/>
+      <c r="L8" s="27">
+        <v>50</v>
+      </c>
       <c r="M8" s="27" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N8" s="31"/>
-      <c r="O8" s="31" t="s">
-        <v>5</v>
+      <c r="O8" s="31">
+        <v>0</v>
       </c>
       <c r="P8" s="32"/>
     </row>
@@ -2329,28 +2308,38 @@
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
-        <v>2022</v>
-      </c>
-      <c r="D9" s="2"/>
+        <v>2023</v>
+      </c>
+      <c r="D9" s="2">
+        <v>141</v>
+      </c>
       <c r="E9" s="2"/>
-      <c r="G9" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H9" s="28"/>
-      <c r="I9" s="27"/>
+      <c r="G9" s="27">
+        <v>3</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="I9" s="27">
+        <v>1</v>
+      </c>
       <c r="J9" s="29" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="K9" s="30"/>
       <c r="L9" s="27"/>
       <c r="M9" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N9" s="31"/>
+        <v>8</v>
+      </c>
+      <c r="N9" s="31">
+        <v>1</v>
+      </c>
       <c r="O9" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P9" s="32"/>
+        <v>11</v>
+      </c>
+      <c r="P9" s="32" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="10" spans="1:17" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
@@ -2358,26 +2347,34 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44336.445729167</v>
-      </c>
-      <c r="D10" s="2"/>
+        <v>44340.444085648</v>
+      </c>
+      <c r="D10" s="2">
+        <v>142</v>
+      </c>
       <c r="E10" s="2"/>
-      <c r="G10" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H10" s="28"/>
-      <c r="I10" s="27"/>
+      <c r="G10" s="27">
+        <v>4</v>
+      </c>
+      <c r="H10" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="I10" s="27">
+        <v>3</v>
+      </c>
       <c r="J10" s="29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K10" s="30"/>
-      <c r="L10" s="27"/>
+      <c r="L10" s="27">
+        <v>50</v>
+      </c>
       <c r="M10" s="27" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N10" s="31"/>
-      <c r="O10" s="31" t="s">
-        <v>5</v>
+      <c r="O10" s="31">
+        <v>0</v>
       </c>
       <c r="P10" s="32"/>
     </row>
@@ -2425,17 +2422,17 @@
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>28</v>
       </c>
       <c r="D13" s="2">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G13" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  GS leerlaag A4 (schooljaar 2019 - 2020)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van  GS leerlaag A4 (schooljaar 2020 - 2021)</v>
       </c>
       <c r="H13" s="33"/>
       <c r="I13" s="33"/>
@@ -2450,7 +2447,7 @@
       </c>
       <c r="B14" s="7">
         <f>4+B11-B7</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G14" s="34"/>
       <c r="H14" s="34"/>
@@ -2467,7 +2464,7 @@
       <c r="D16" s="2"/>
       <c r="G16" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"5 (schooljaar ",B7+1," - ",B7+2,")")</f>
-        <v>GS leerlaag A5 (schooljaar 2020 - 2021)</v>
+        <v>GS leerlaag A5 (schooljaar 2021 - 2022)</v>
       </c>
     </row>
     <row r="17" spans="1:17" customHeight="1" ht="34.5">
@@ -2509,152 +2506,112 @@
       </c>
     </row>
     <row r="18" spans="1:17" customHeight="1" ht="72">
-      <c r="D18" s="2">
-        <v>143</v>
-      </c>
+      <c r="D18" s="2"/>
       <c r="E18" s="2"/>
-      <c r="G18" s="27">
-        <v>1</v>
-      </c>
-      <c r="H18" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="I18" s="27">
-        <v>3</v>
-      </c>
+      <c r="G18" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H18" s="28"/>
+      <c r="I18" s="27"/>
       <c r="J18" s="29" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K18" s="30"/>
-      <c r="L18" s="27">
-        <v>100</v>
-      </c>
+      <c r="L18" s="27"/>
       <c r="M18" s="27" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N18" s="31"/>
       <c r="O18" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P18" s="32"/>
     </row>
     <row r="19" spans="1:17" customHeight="1" ht="72">
-      <c r="D19" s="2">
-        <v>144</v>
-      </c>
+      <c r="D19" s="2"/>
       <c r="E19" s="2"/>
-      <c r="G19" s="27">
-        <v>2</v>
-      </c>
-      <c r="H19" s="28" t="s">
-        <v>90</v>
-      </c>
-      <c r="I19" s="27">
-        <v>3</v>
-      </c>
+      <c r="G19" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H19" s="28"/>
+      <c r="I19" s="27"/>
       <c r="J19" s="29" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K19" s="30"/>
-      <c r="L19" s="27">
-        <v>100</v>
-      </c>
+      <c r="L19" s="27"/>
       <c r="M19" s="27" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N19" s="31"/>
       <c r="O19" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P19" s="32"/>
     </row>
     <row r="20" spans="1:17" customHeight="1" ht="72">
-      <c r="D20" s="2">
-        <v>145</v>
-      </c>
+      <c r="D20" s="2"/>
       <c r="E20" s="2"/>
-      <c r="G20" s="27">
-        <v>3</v>
-      </c>
-      <c r="H20" s="28" t="s">
-        <v>91</v>
-      </c>
-      <c r="I20" s="27">
-        <v>2</v>
-      </c>
+      <c r="G20" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H20" s="28"/>
+      <c r="I20" s="27"/>
       <c r="J20" s="29" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="K20" s="30"/>
       <c r="L20" s="27"/>
       <c r="M20" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N20" s="31">
-        <v>1</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N20" s="31"/>
       <c r="O20" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P20" s="32"/>
     </row>
     <row r="21" spans="1:17" customHeight="1" ht="72">
-      <c r="D21" s="2">
-        <v>146</v>
-      </c>
+      <c r="D21" s="2"/>
       <c r="E21" s="2"/>
-      <c r="G21" s="27">
-        <v>3</v>
-      </c>
-      <c r="H21" s="28" t="s">
-        <v>92</v>
-      </c>
-      <c r="I21" s="27">
-        <v>3</v>
-      </c>
+      <c r="G21" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H21" s="28"/>
+      <c r="I21" s="27"/>
       <c r="J21" s="29" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K21" s="30"/>
-      <c r="L21" s="27">
-        <v>100</v>
-      </c>
+      <c r="L21" s="27"/>
       <c r="M21" s="27" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N21" s="31"/>
       <c r="O21" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P21" s="32"/>
     </row>
     <row r="22" spans="1:17" customHeight="1" ht="72">
-      <c r="D22" s="2">
-        <v>147</v>
-      </c>
+      <c r="D22" s="2"/>
       <c r="E22" s="2"/>
-      <c r="G22" s="27">
-        <v>4</v>
-      </c>
-      <c r="H22" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="I22" s="27">
-        <v>3</v>
-      </c>
+      <c r="G22" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H22" s="28"/>
+      <c r="I22" s="27"/>
       <c r="J22" s="29" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K22" s="30"/>
-      <c r="L22" s="27">
-        <v>100</v>
-      </c>
+      <c r="L22" s="27"/>
       <c r="M22" s="27" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N22" s="31"/>
       <c r="O22" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P22" s="32"/>
     </row>
@@ -2685,11 +2642,11 @@
         <v>28</v>
       </c>
       <c r="D25" s="2">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G25" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  GS leerlaag A5 (schooljaar 2020 - 2021)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van  GS leerlaag A5 (schooljaar 2021 - 2022)</v>
       </c>
       <c r="H25" s="33"/>
       <c r="I25" s="33"/>
@@ -2714,7 +2671,7 @@
       <c r="D28" s="2"/>
       <c r="G28" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"6 (schooljaar ",B7+2," - ",B9,")")</f>
-        <v>GS leerlaag A6 (schooljaar 2021 - 2022)</v>
+        <v>GS leerlaag A6 (schooljaar 2022 - 2023)</v>
       </c>
     </row>
     <row r="29" spans="1:17" customHeight="1" ht="34.5">
@@ -2892,11 +2849,11 @@
         <v>28</v>
       </c>
       <c r="D37" s="2">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G37" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  GS leerlaag A6 (schooljaar 2021 - 2022)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van  GS leerlaag A6 (schooljaar 2022 - 2023)</v>
       </c>
       <c r="H37" s="33"/>
       <c r="I37" s="33"/>
@@ -3029,6 +2986,918 @@
   </sheetPr>
   <dimension ref="A1:Q38"/>
   <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" zoomScale="85" zoomScaleNormal="85" showGridLines="true" showRowColHeaders="1">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O30" sqref="O30:O35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="18.28515625" hidden="true" customWidth="true" style="9"/>
+    <col min="2" max="2" width="19.7109375" hidden="true" customWidth="true" style="7"/>
+    <col min="3" max="3" width="9.140625" hidden="true" customWidth="true" style="9"/>
+    <col min="4" max="4" width="9.140625" hidden="true" customWidth="true" style="7"/>
+    <col min="5" max="5" width="9.140625" hidden="true" customWidth="true" style="7"/>
+    <col min="6" max="6" width="9.140625" customWidth="true" style="8"/>
+    <col min="7" max="7" width="9.5703125" customWidth="true" style="7"/>
+    <col min="8" max="8" width="64.7109375" customWidth="true" style="8"/>
+    <col min="9" max="9" width="9.140625" customWidth="true" style="7"/>
+    <col min="10" max="10" width="9.140625" customWidth="true" style="7"/>
+    <col min="11" max="11" width="32.7109375" customWidth="true" style="8"/>
+    <col min="12" max="12" width="9.140625" customWidth="true" style="7"/>
+    <col min="13" max="13" width="9.140625" customWidth="true" style="7"/>
+    <col min="14" max="14" width="9.140625" customWidth="true" style="7"/>
+    <col min="15" max="15" width="9.28515625" customWidth="true" style="7"/>
+    <col min="16" max="16" width="32.7109375" customWidth="true" style="8"/>
+    <col min="17" max="17" width="9.140625" customWidth="true" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17">
+      <c r="A1" s="11"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+    </row>
+    <row r="2" spans="1:17" customHeight="1" ht="48">
+      <c r="A2" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2" s="35" t="str">
+        <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
+        <v>Dit is het programma van de huidige A5 (cohort 2019 - 2022)</v>
+      </c>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="O2" s="25"/>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" customHeight="1" ht="30">
+      <c r="A4" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="G4" s="17" t="str">
+        <f>CONCATENATE(B4," leerlaag ",B6,"4 (schooljaar ",B7," - ",B7+1,")")</f>
+        <v>GS leerlaag A4 (schooljaar 2019 - 2020)</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" customHeight="1" ht="34.5">
+      <c r="A5" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="2">
+        <v>21</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="K5" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="L5" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="M5" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="N5" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="O5" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="P5" s="20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" customHeight="1" ht="72">
+      <c r="A6" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="G6" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="28"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K6" s="30"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P6" s="32"/>
+    </row>
+    <row r="7" spans="1:17" customHeight="1" ht="72">
+      <c r="A7" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="2">
+        <v>2019</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="G7" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="28"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K7" s="30"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N7" s="31"/>
+      <c r="O7" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P7" s="32"/>
+    </row>
+    <row r="8" spans="1:17" customHeight="1" ht="72">
+      <c r="A8" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="2">
+        <v>29</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="G8" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H8" s="28"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K8" s="30"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N8" s="31"/>
+      <c r="O8" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P8" s="32"/>
+    </row>
+    <row r="9" spans="1:17" customHeight="1" ht="72">
+      <c r="A9" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="4">
+        <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
+        <v>2022</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="G9" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="28"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K9" s="30"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N9" s="31"/>
+      <c r="O9" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P9" s="32"/>
+    </row>
+    <row r="10" spans="1:17" customHeight="1" ht="72">
+      <c r="A10" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="6">
+        <f>NOW()</f>
+        <v>44340.444085648</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="G10" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" s="28"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K10" s="30"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N10" s="31"/>
+      <c r="O10" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P10" s="32"/>
+    </row>
+    <row r="11" spans="1:17" customHeight="1" ht="72">
+      <c r="A11" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="4">
+        <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
+        <v>2020</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="G11" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H11" s="28"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K11" s="30"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N11" s="31"/>
+      <c r="O11" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P11" s="32"/>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="4" t="str">
+        <f>CONCATENATE(B11," - ",B11+1)</f>
+        <v>2020 - 2021</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="4">
+        <f>B7-B11</f>
+        <v>-1</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="2">
+        <v>70</v>
+      </c>
+      <c r="G13" s="33" t="str">
+        <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
+        <v>Algemene opmerkingen bij het jaarprogramma van  GS leerlaag A4 (schooljaar 2019 - 2020)</v>
+      </c>
+      <c r="H13" s="33"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="33"/>
+      <c r="L13" s="33"/>
+      <c r="M13" s="33"/>
+    </row>
+    <row r="14" spans="1:17" customHeight="1" ht="72">
+      <c r="A14" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="7">
+        <f>4+B11-B7</f>
+        <v>5</v>
+      </c>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="34"/>
+      <c r="M14" s="34"/>
+    </row>
+    <row r="16" spans="1:17" customHeight="1" ht="30.75">
+      <c r="C16" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="G16" s="17" t="str">
+        <f>CONCATENATE(B4," leerlaag ",B6,"5 (schooljaar ",B7+1," - ",B7+2,")")</f>
+        <v>GS leerlaag A5 (schooljaar 2020 - 2021)</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" customHeight="1" ht="34.5">
+      <c r="D17" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="G17" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="H17" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="I17" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="J17" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="K17" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="L17" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="M17" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="N17" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="O17" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="P17" s="20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" customHeight="1" ht="72">
+      <c r="D18" s="2">
+        <v>143</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="G18" s="27">
+        <v>1</v>
+      </c>
+      <c r="H18" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="I18" s="27">
+        <v>3</v>
+      </c>
+      <c r="J18" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="K18" s="30"/>
+      <c r="L18" s="27">
+        <v>100</v>
+      </c>
+      <c r="M18" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="N18" s="31"/>
+      <c r="O18" s="31">
+        <v>0</v>
+      </c>
+      <c r="P18" s="32"/>
+    </row>
+    <row r="19" spans="1:17" customHeight="1" ht="72">
+      <c r="D19" s="2">
+        <v>144</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="G19" s="27">
+        <v>2</v>
+      </c>
+      <c r="H19" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="I19" s="27">
+        <v>3</v>
+      </c>
+      <c r="J19" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="K19" s="30"/>
+      <c r="L19" s="27">
+        <v>100</v>
+      </c>
+      <c r="M19" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="N19" s="31"/>
+      <c r="O19" s="31">
+        <v>0</v>
+      </c>
+      <c r="P19" s="32"/>
+    </row>
+    <row r="20" spans="1:17" customHeight="1" ht="72">
+      <c r="D20" s="2">
+        <v>145</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="G20" s="27">
+        <v>3</v>
+      </c>
+      <c r="H20" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="I20" s="27">
+        <v>2</v>
+      </c>
+      <c r="J20" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="K20" s="30"/>
+      <c r="L20" s="27"/>
+      <c r="M20" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="N20" s="31">
+        <v>1</v>
+      </c>
+      <c r="O20" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="P20" s="32" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" customHeight="1" ht="72">
+      <c r="D21" s="2">
+        <v>146</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="G21" s="27">
+        <v>3</v>
+      </c>
+      <c r="H21" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="I21" s="27">
+        <v>3</v>
+      </c>
+      <c r="J21" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="K21" s="30"/>
+      <c r="L21" s="27">
+        <v>100</v>
+      </c>
+      <c r="M21" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="N21" s="31"/>
+      <c r="O21" s="31">
+        <v>0</v>
+      </c>
+      <c r="P21" s="32"/>
+    </row>
+    <row r="22" spans="1:17" customHeight="1" ht="72">
+      <c r="D22" s="2">
+        <v>147</v>
+      </c>
+      <c r="E22" s="2"/>
+      <c r="G22" s="27">
+        <v>4</v>
+      </c>
+      <c r="H22" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="I22" s="27">
+        <v>3</v>
+      </c>
+      <c r="J22" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="K22" s="30"/>
+      <c r="L22" s="27">
+        <v>100</v>
+      </c>
+      <c r="M22" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="N22" s="31"/>
+      <c r="O22" s="31">
+        <v>0</v>
+      </c>
+      <c r="P22" s="32"/>
+    </row>
+    <row r="23" spans="1:17" customHeight="1" ht="72">
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="G23" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H23" s="28"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K23" s="30"/>
+      <c r="L23" s="27"/>
+      <c r="M23" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N23" s="31"/>
+      <c r="O23" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P23" s="32"/>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="C25" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" s="2">
+        <v>71</v>
+      </c>
+      <c r="G25" s="33" t="str">
+        <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
+        <v>Algemene opmerkingen bij het jaarprogramma van  GS leerlaag A5 (schooljaar 2020 - 2021)</v>
+      </c>
+      <c r="H25" s="33"/>
+      <c r="I25" s="33"/>
+      <c r="J25" s="33"/>
+      <c r="K25" s="33"/>
+      <c r="L25" s="33"/>
+      <c r="M25" s="33"/>
+    </row>
+    <row r="26" spans="1:17" customHeight="1" ht="72">
+      <c r="G26" s="34"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="34"/>
+      <c r="K26" s="34"/>
+      <c r="L26" s="34"/>
+      <c r="M26" s="34"/>
+    </row>
+    <row r="28" spans="1:17" customHeight="1" ht="30.75">
+      <c r="C28" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="G28" s="17" t="str">
+        <f>CONCATENATE(B4," leerlaag ",B6,"6 (schooljaar ",B7+2," - ",B9,")")</f>
+        <v>GS leerlaag A6 (schooljaar 2021 - 2022)</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" customHeight="1" ht="34.5">
+      <c r="D29" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E29" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="G29" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="H29" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="I29" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="J29" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="K29" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="L29" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="M29" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="N29" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="O29" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="P29" s="20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" customHeight="1" ht="72">
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="G30" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H30" s="28"/>
+      <c r="I30" s="27"/>
+      <c r="J30" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K30" s="30"/>
+      <c r="L30" s="27"/>
+      <c r="M30" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N30" s="31"/>
+      <c r="O30" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P30" s="32"/>
+    </row>
+    <row r="31" spans="1:17" customHeight="1" ht="72">
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="G31" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H31" s="28"/>
+      <c r="I31" s="27"/>
+      <c r="J31" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K31" s="30"/>
+      <c r="L31" s="27"/>
+      <c r="M31" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N31" s="31"/>
+      <c r="O31" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P31" s="32"/>
+    </row>
+    <row r="32" spans="1:17" customHeight="1" ht="72">
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="G32" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H32" s="28"/>
+      <c r="I32" s="27"/>
+      <c r="J32" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K32" s="30"/>
+      <c r="L32" s="27"/>
+      <c r="M32" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N32" s="31"/>
+      <c r="O32" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P32" s="32"/>
+    </row>
+    <row r="33" spans="1:17" customHeight="1" ht="72">
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="G33" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H33" s="28"/>
+      <c r="I33" s="27"/>
+      <c r="J33" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K33" s="30"/>
+      <c r="L33" s="27"/>
+      <c r="M33" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N33" s="31"/>
+      <c r="O33" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P33" s="32"/>
+    </row>
+    <row r="34" spans="1:17" customHeight="1" ht="72">
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="G34" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H34" s="28"/>
+      <c r="I34" s="27"/>
+      <c r="J34" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K34" s="30"/>
+      <c r="L34" s="27"/>
+      <c r="M34" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N34" s="31"/>
+      <c r="O34" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P34" s="32"/>
+    </row>
+    <row r="35" spans="1:17" customHeight="1" ht="72">
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="G35" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H35" s="28"/>
+      <c r="I35" s="27"/>
+      <c r="J35" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K35" s="30"/>
+      <c r="L35" s="27"/>
+      <c r="M35" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N35" s="31"/>
+      <c r="O35" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P35" s="32"/>
+    </row>
+    <row r="37" spans="1:17">
+      <c r="C37" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D37" s="2">
+        <v>72</v>
+      </c>
+      <c r="G37" s="33" t="str">
+        <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
+        <v>Algemene opmerkingen bij het jaarprogramma van  GS leerlaag A6 (schooljaar 2021 - 2022)</v>
+      </c>
+      <c r="H37" s="33"/>
+      <c r="I37" s="33"/>
+      <c r="J37" s="33"/>
+      <c r="K37" s="33"/>
+      <c r="L37" s="33"/>
+      <c r="M37" s="33"/>
+    </row>
+    <row r="38" spans="1:17" customHeight="1" ht="72">
+      <c r="G38" s="34"/>
+      <c r="H38" s="34"/>
+      <c r="I38" s="34"/>
+      <c r="J38" s="34"/>
+      <c r="K38" s="34"/>
+      <c r="L38" s="34"/>
+      <c r="M38" s="34"/>
+    </row>
+  </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="K8dvRg92i6t2Teov+MuO3P5bRiICyj5Bf+rKucbGl7PSPcccuCNH279qGmcaWD4+RRRXhp8n/KJ4/sC46gH8qw==" saltValue="/6xjLhdUXCbSwxjIYy2m3w==" spinCount="100000" sheet="true" objects="true" scenarios="true" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <mergeCells>
+    <mergeCell ref="G37:M37"/>
+    <mergeCell ref="G38:M38"/>
+    <mergeCell ref="G14:M14"/>
+    <mergeCell ref="G2:M2"/>
+    <mergeCell ref="G13:M13"/>
+    <mergeCell ref="G25:M25"/>
+    <mergeCell ref="G26:M26"/>
+  </mergeCells>
+  <conditionalFormatting sqref="J6:J11">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>ISBLANK($J6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J18:J23">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>ISBLANK($J18)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J30:J35">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>ISBLANK($J30)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M6:M11">
+    <cfRule type="expression" dxfId="3" priority="4">
+      <formula>ISBLANK($M6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M18:M23">
+    <cfRule type="expression" dxfId="4" priority="5">
+      <formula>ISBLANK($M18)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M30:M35">
+    <cfRule type="expression" dxfId="5" priority="6">
+      <formula>ISBLANK($M30)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O6:O11">
+    <cfRule type="expression" dxfId="6" priority="7">
+      <formula>ISBLANK($O6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O18:O23">
+    <cfRule type="expression" dxfId="7" priority="8">
+      <formula>ISBLANK($O18)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O30:O35">
+    <cfRule type="expression" dxfId="8" priority="9">
+      <formula>ISBLANK($O30)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="12">
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G6:G11">
+      <formula1>instellingen!$G$2:$G$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G18:G23">
+      <formula1>instellingen!$G$2:$G$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G30:G35">
+      <formula1>instellingen!$G$2:$G$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J6:J11">
+      <formula1>instellingen!$H$2:$H$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J18:J23">
+      <formula1>instellingen!$H$2:$H$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J30:J35">
+      <formula1>instellingen!$H$2:$H$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M6:M11">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M18:M23">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M30:M35">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O6:O11">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O18:O23">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O30:O35">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+  </dataValidations>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" r:id="rId1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:Q38"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="85" zoomScaleNormal="85" showGridLines="true" showRowColHeaders="1">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="O30" sqref="O30:O35"/>
@@ -3154,7 +4023,7 @@
         <v>41</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -3268,7 +4137,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44336.445729167</v>
+        <v>44340.444085648</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -3634,7 +4503,7 @@
         <v>1</v>
       </c>
       <c r="H30" s="28" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="I30" s="27"/>
       <c r="J30" s="29" t="s">
@@ -3651,9 +4520,11 @@
         <v>3</v>
       </c>
       <c r="O30" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="P30" s="32"/>
+        <v>8</v>
+      </c>
+      <c r="P30" s="32" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="31" spans="1:17" customHeight="1" ht="72">
       <c r="D31" s="2">
@@ -3664,7 +4535,7 @@
         <v>2</v>
       </c>
       <c r="H31" s="28" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="I31" s="27"/>
       <c r="J31" s="29" t="s">
@@ -3681,9 +4552,11 @@
         <v>3</v>
       </c>
       <c r="O31" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="P31" s="32"/>
+        <v>8</v>
+      </c>
+      <c r="P31" s="32" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="32" spans="1:17" customHeight="1" ht="72">
       <c r="D32" s="2">
@@ -3694,7 +4567,7 @@
         <v>3</v>
       </c>
       <c r="H32" s="28" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="I32" s="27"/>
       <c r="J32" s="29" t="s">
@@ -3711,9 +4584,11 @@
         <v>3</v>
       </c>
       <c r="O32" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="P32" s="32"/>
+        <v>8</v>
+      </c>
+      <c r="P32" s="32" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="33" spans="1:17" customHeight="1" ht="72">
       <c r="D33" s="2"/>
@@ -4152,7 +5027,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44336.445729167</v>
+        <v>44340.444085648</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -5107,7 +5982,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44336.445729167</v>
+        <v>44340.444085648</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -5923,7 +6798,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44336.445729167</v>
+        <v>44340.444085648</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -6547,12 +7422,12 @@
       <c r="A2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="2">
-        <v>0</v>
+      <c r="B2" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="G2" s="35" t="str">
         <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
-        <v>verouderd PTA</v>
+        <v>Dit is het programma van de huidige M5 (cohort 2019 - 2020)</v>
       </c>
       <c r="H2" s="35"/>
       <c r="I2" s="35"/>
@@ -6574,6 +7449,901 @@
       <c r="A4" s="9" t="s">
         <v>27</v>
       </c>
+      <c r="B4" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="G4" s="17" t="str">
+        <f>CONCATENATE(B4," leerlaag ",B6,"4 (schooljaar ",B7," - ",B7+1,")")</f>
+        <v>GS leerlaag M4 (schooljaar 2019 - 2020)</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" customHeight="1" ht="34.5">
+      <c r="A5" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="2">
+        <v>21</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="K5" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="L5" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="M5" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="N5" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="O5" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="P5" s="20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" customHeight="1" ht="72">
+      <c r="A6" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="G6" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="28"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K6" s="30"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P6" s="32"/>
+    </row>
+    <row r="7" spans="1:17" customHeight="1" ht="72">
+      <c r="A7" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="2">
+        <v>2019</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="G7" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="28"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K7" s="30"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N7" s="31"/>
+      <c r="O7" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P7" s="32"/>
+    </row>
+    <row r="8" spans="1:17" customHeight="1" ht="72">
+      <c r="A8" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="2">
+        <v>25</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="G8" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H8" s="28"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K8" s="30"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N8" s="31"/>
+      <c r="O8" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P8" s="32"/>
+    </row>
+    <row r="9" spans="1:17" customHeight="1" ht="72">
+      <c r="A9" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="4">
+        <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
+        <v>2020</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="G9" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="28"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K9" s="30"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N9" s="31"/>
+      <c r="O9" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P9" s="32"/>
+    </row>
+    <row r="10" spans="1:17" customHeight="1" ht="72">
+      <c r="A10" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="6">
+        <f>NOW()</f>
+        <v>44340.444085648</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="G10" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" s="28"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K10" s="30"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N10" s="31"/>
+      <c r="O10" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P10" s="32"/>
+    </row>
+    <row r="11" spans="1:17" customHeight="1" ht="72">
+      <c r="A11" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="4">
+        <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
+        <v>2020</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="G11" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H11" s="28"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K11" s="30"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N11" s="31"/>
+      <c r="O11" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P11" s="32"/>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="4" t="str">
+        <f>CONCATENATE(B11," - ",B11+1)</f>
+        <v>2020 - 2021</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="4">
+        <f>B7-B11</f>
+        <v>-1</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="2">
+        <v>61</v>
+      </c>
+      <c r="G13" s="33" t="str">
+        <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
+        <v>Algemene opmerkingen bij het jaarprogramma van  GS leerlaag M4 (schooljaar 2019 - 2020)</v>
+      </c>
+      <c r="H13" s="33"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="33"/>
+      <c r="L13" s="33"/>
+      <c r="M13" s="33"/>
+    </row>
+    <row r="14" spans="1:17" customHeight="1" ht="72">
+      <c r="A14" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="7">
+        <f>4+B11-B7</f>
+        <v>5</v>
+      </c>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="34"/>
+      <c r="M14" s="34"/>
+    </row>
+    <row r="16" spans="1:17" customHeight="1" ht="30.75">
+      <c r="C16" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="G16" s="17" t="str">
+        <f>CONCATENATE(B4," leerlaag ",B6,"5 (schooljaar ",B7+1," - ",B7+2,")")</f>
+        <v>GS leerlaag M5 (schooljaar 2020 - 2021)</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" customHeight="1" ht="34.5">
+      <c r="D17" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="G17" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="H17" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="I17" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="J17" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="K17" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="L17" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="M17" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="N17" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="O17" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="P17" s="20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" customHeight="1" ht="72">
+      <c r="D18" s="2">
+        <v>127</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="G18" s="27">
+        <v>1</v>
+      </c>
+      <c r="H18" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="I18" s="27"/>
+      <c r="J18" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="K18" s="30"/>
+      <c r="L18" s="27">
+        <v>100</v>
+      </c>
+      <c r="M18" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="N18" s="31">
+        <v>1</v>
+      </c>
+      <c r="O18" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="P18" s="32" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" customHeight="1" ht="72">
+      <c r="D19" s="2">
+        <v>128</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="G19" s="27">
+        <v>2</v>
+      </c>
+      <c r="H19" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="I19" s="27"/>
+      <c r="J19" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="K19" s="30"/>
+      <c r="L19" s="27">
+        <v>100</v>
+      </c>
+      <c r="M19" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="N19" s="31">
+        <v>1</v>
+      </c>
+      <c r="O19" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="P19" s="32" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" customHeight="1" ht="72">
+      <c r="D20" s="2">
+        <v>129</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="G20" s="27">
+        <v>3</v>
+      </c>
+      <c r="H20" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="I20" s="27"/>
+      <c r="J20" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="K20" s="30"/>
+      <c r="L20" s="27">
+        <v>100</v>
+      </c>
+      <c r="M20" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="N20" s="31">
+        <v>1</v>
+      </c>
+      <c r="O20" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="P20" s="32" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" customHeight="1" ht="72">
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="G21" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H21" s="28"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K21" s="30"/>
+      <c r="L21" s="27"/>
+      <c r="M21" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N21" s="31"/>
+      <c r="O21" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P21" s="32"/>
+    </row>
+    <row r="22" spans="1:17" customHeight="1" ht="72">
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="G22" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H22" s="28"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K22" s="30"/>
+      <c r="L22" s="27"/>
+      <c r="M22" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N22" s="31"/>
+      <c r="O22" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P22" s="32"/>
+    </row>
+    <row r="23" spans="1:17" customHeight="1" ht="72">
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="G23" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H23" s="28"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K23" s="30"/>
+      <c r="L23" s="27"/>
+      <c r="M23" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N23" s="31"/>
+      <c r="O23" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P23" s="32"/>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="C25" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" s="2">
+        <v>62</v>
+      </c>
+      <c r="G25" s="33" t="str">
+        <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
+        <v>Algemene opmerkingen bij het jaarprogramma van  GS leerlaag M5 (schooljaar 2020 - 2021)</v>
+      </c>
+      <c r="H25" s="33"/>
+      <c r="I25" s="33"/>
+      <c r="J25" s="33"/>
+      <c r="K25" s="33"/>
+      <c r="L25" s="33"/>
+      <c r="M25" s="33"/>
+    </row>
+    <row r="26" spans="1:17" customHeight="1" ht="72">
+      <c r="G26" s="34"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="34"/>
+      <c r="K26" s="34"/>
+      <c r="L26" s="34"/>
+      <c r="M26" s="34"/>
+    </row>
+    <row r="28" spans="1:17" customHeight="1" ht="30.75">
+      <c r="C28" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="G28" s="17" t="str">
+        <f>CONCATENATE(B4," leerlaag ",B6,"6 (schooljaar ",B7+2," - ",B9,")")</f>
+        <v>GS leerlaag M6 (schooljaar 2021 - 2020)</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" customHeight="1" ht="34.5">
+      <c r="D29" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E29" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="G29" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="H29" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="I29" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="J29" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="K29" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="L29" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="M29" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="N29" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="O29" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="P29" s="20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" customHeight="1" ht="72">
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="G30" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H30" s="28"/>
+      <c r="I30" s="27"/>
+      <c r="J30" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K30" s="30"/>
+      <c r="L30" s="27"/>
+      <c r="M30" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N30" s="31"/>
+      <c r="O30" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P30" s="32"/>
+    </row>
+    <row r="31" spans="1:17" customHeight="1" ht="72">
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="G31" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H31" s="28"/>
+      <c r="I31" s="27"/>
+      <c r="J31" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K31" s="30"/>
+      <c r="L31" s="27"/>
+      <c r="M31" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N31" s="31"/>
+      <c r="O31" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P31" s="32"/>
+    </row>
+    <row r="32" spans="1:17" customHeight="1" ht="72">
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="G32" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H32" s="28"/>
+      <c r="I32" s="27"/>
+      <c r="J32" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K32" s="30"/>
+      <c r="L32" s="27"/>
+      <c r="M32" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N32" s="31"/>
+      <c r="O32" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P32" s="32"/>
+    </row>
+    <row r="33" spans="1:17" customHeight="1" ht="72">
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="G33" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H33" s="28"/>
+      <c r="I33" s="27"/>
+      <c r="J33" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K33" s="30"/>
+      <c r="L33" s="27"/>
+      <c r="M33" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N33" s="31"/>
+      <c r="O33" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P33" s="32"/>
+    </row>
+    <row r="34" spans="1:17" customHeight="1" ht="72">
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="G34" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H34" s="28"/>
+      <c r="I34" s="27"/>
+      <c r="J34" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K34" s="30"/>
+      <c r="L34" s="27"/>
+      <c r="M34" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N34" s="31"/>
+      <c r="O34" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P34" s="32"/>
+    </row>
+    <row r="35" spans="1:17" customHeight="1" ht="72">
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="G35" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H35" s="28"/>
+      <c r="I35" s="27"/>
+      <c r="J35" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K35" s="30"/>
+      <c r="L35" s="27"/>
+      <c r="M35" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N35" s="31"/>
+      <c r="O35" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P35" s="32"/>
+    </row>
+    <row r="37" spans="1:17">
+      <c r="C37" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D37" s="2"/>
+      <c r="G37" s="33" t="str">
+        <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
+        <v>Algemene opmerkingen bij het jaarprogramma van  GS leerlaag M6 (schooljaar 2021 - 2020)</v>
+      </c>
+      <c r="H37" s="33"/>
+      <c r="I37" s="33"/>
+      <c r="J37" s="33"/>
+      <c r="K37" s="33"/>
+      <c r="L37" s="33"/>
+      <c r="M37" s="33"/>
+    </row>
+    <row r="38" spans="1:17" customHeight="1" ht="72">
+      <c r="G38" s="34"/>
+      <c r="H38" s="34"/>
+      <c r="I38" s="34"/>
+      <c r="J38" s="34"/>
+      <c r="K38" s="34"/>
+      <c r="L38" s="34"/>
+      <c r="M38" s="34"/>
+    </row>
+  </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="K8dvRg92i6t2Teov+MuO3P5bRiICyj5Bf+rKucbGl7PSPcccuCNH279qGmcaWD4+RRRXhp8n/KJ4/sC46gH8qw==" saltValue="/6xjLhdUXCbSwxjIYy2m3w==" spinCount="100000" sheet="true" objects="true" scenarios="true" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <mergeCells>
+    <mergeCell ref="G37:M37"/>
+    <mergeCell ref="G38:M38"/>
+    <mergeCell ref="G14:M14"/>
+    <mergeCell ref="G2:M2"/>
+    <mergeCell ref="G13:M13"/>
+    <mergeCell ref="G25:M25"/>
+    <mergeCell ref="G26:M26"/>
+  </mergeCells>
+  <conditionalFormatting sqref="J6:J11">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>ISBLANK($J6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J18:J23">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>ISBLANK($J18)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J30:J35">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>ISBLANK($J30)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M6:M11">
+    <cfRule type="expression" dxfId="3" priority="4">
+      <formula>ISBLANK($M6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M18:M23">
+    <cfRule type="expression" dxfId="4" priority="5">
+      <formula>ISBLANK($M18)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M30:M35">
+    <cfRule type="expression" dxfId="5" priority="6">
+      <formula>ISBLANK($M30)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O6:O11">
+    <cfRule type="expression" dxfId="6" priority="7">
+      <formula>ISBLANK($O6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O18:O23">
+    <cfRule type="expression" dxfId="7" priority="8">
+      <formula>ISBLANK($O18)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O30:O35">
+    <cfRule type="expression" dxfId="8" priority="9">
+      <formula>ISBLANK($O30)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="11">
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G6:G11">
+      <formula1>instellingen!$G$2:$G$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G30:G35">
+      <formula1>instellingen!$G$2:$G$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J6:J11">
+      <formula1>instellingen!$H$2:$H$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J18:J23">
+      <formula1>instellingen!$H$2:$H$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J30:J35">
+      <formula1>instellingen!$H$2:$H$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M6:M11">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M18:M23">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M30:M35">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O6:O11">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O18:O23">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O30:O35">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+  </dataValidations>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" r:id="rId1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:Q38"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" zoomScale="85" zoomScaleNormal="85" showGridLines="true" showRowColHeaders="1">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O30" sqref="O30:O35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="18.28515625" hidden="true" customWidth="true" style="9"/>
+    <col min="2" max="2" width="19.7109375" hidden="true" customWidth="true" style="7"/>
+    <col min="3" max="3" width="9.140625" hidden="true" customWidth="true" style="9"/>
+    <col min="4" max="4" width="9.140625" hidden="true" customWidth="true" style="7"/>
+    <col min="5" max="5" width="9.140625" hidden="true" customWidth="true" style="7"/>
+    <col min="6" max="6" width="9.140625" customWidth="true" style="8"/>
+    <col min="7" max="7" width="9.5703125" customWidth="true" style="7"/>
+    <col min="8" max="8" width="64.7109375" customWidth="true" style="8"/>
+    <col min="9" max="9" width="9.140625" customWidth="true" style="7"/>
+    <col min="10" max="10" width="9.140625" customWidth="true" style="7"/>
+    <col min="11" max="11" width="32.7109375" customWidth="true" style="8"/>
+    <col min="12" max="12" width="9.140625" customWidth="true" style="7"/>
+    <col min="13" max="13" width="9.140625" customWidth="true" style="7"/>
+    <col min="14" max="14" width="9.140625" customWidth="true" style="7"/>
+    <col min="15" max="15" width="9.28515625" customWidth="true" style="7"/>
+    <col min="16" max="16" width="32.7109375" customWidth="true" style="8"/>
+    <col min="17" max="17" width="9.140625" customWidth="true" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17">
+      <c r="A1" s="11"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+    </row>
+    <row r="2" spans="1:17" customHeight="1" ht="48">
+      <c r="A2" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="G2" s="35" t="str">
+        <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
+        <v>verouderd PTA</v>
+      </c>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="O2" s="25"/>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" customHeight="1" ht="30">
+      <c r="A4" s="9" t="s">
+        <v>27</v>
+      </c>
       <c r="B4" s="2"/>
       <c r="C4" s="9" t="s">
         <v>28</v>
@@ -6739,7 +8509,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44336.445729167</v>
+        <v>44340.444085648</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -7319,918 +9089,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:Q38"/>
-  <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" zoomScale="85" zoomScaleNormal="85" showGridLines="true" showRowColHeaders="1">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O30" sqref="O30:O35"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="1" width="18.28515625" hidden="true" customWidth="true" style="9"/>
-    <col min="2" max="2" width="19.7109375" hidden="true" customWidth="true" style="7"/>
-    <col min="3" max="3" width="9.140625" hidden="true" customWidth="true" style="9"/>
-    <col min="4" max="4" width="9.140625" hidden="true" customWidth="true" style="7"/>
-    <col min="5" max="5" width="9.140625" hidden="true" customWidth="true" style="7"/>
-    <col min="6" max="6" width="9.140625" customWidth="true" style="8"/>
-    <col min="7" max="7" width="9.5703125" customWidth="true" style="7"/>
-    <col min="8" max="8" width="64.7109375" customWidth="true" style="8"/>
-    <col min="9" max="9" width="9.140625" customWidth="true" style="7"/>
-    <col min="10" max="10" width="9.140625" customWidth="true" style="7"/>
-    <col min="11" max="11" width="32.7109375" customWidth="true" style="8"/>
-    <col min="12" max="12" width="9.140625" customWidth="true" style="7"/>
-    <col min="13" max="13" width="9.140625" customWidth="true" style="7"/>
-    <col min="14" max="14" width="9.140625" customWidth="true" style="7"/>
-    <col min="15" max="15" width="9.28515625" customWidth="true" style="7"/>
-    <col min="16" max="16" width="32.7109375" customWidth="true" style="8"/>
-    <col min="17" max="17" width="9.140625" customWidth="true" style="8"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17">
-      <c r="A1" s="11"/>
-      <c r="B1" s="12"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-    </row>
-    <row r="2" spans="1:17" customHeight="1" ht="48">
-      <c r="A2" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="G2" s="35" t="str">
-        <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
-        <v>Dit is het programma van de huidige H4 (cohort 2020 - 2022)</v>
-      </c>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="O2" s="25"/>
-    </row>
-    <row r="3" spans="1:17">
-      <c r="A3" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" customHeight="1" ht="30">
-      <c r="A4" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="G4" s="17" t="str">
-        <f>CONCATENATE(B4," leerlaag ",B6,"4 (schooljaar ",B7," - ",B7+1,")")</f>
-        <v>GS leerlaag H4 (schooljaar 2020 - 2021)</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" customHeight="1" ht="34.5">
-      <c r="A5" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="2">
-        <v>21</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="G5" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="H5" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="I5" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="J5" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="K5" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="L5" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="M5" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="N5" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="O5" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="P5" s="20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" customHeight="1" ht="72">
-      <c r="A6" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D6" s="2">
-        <v>130</v>
-      </c>
-      <c r="E6" s="2"/>
-      <c r="G6" s="27">
-        <v>1</v>
-      </c>
-      <c r="H6" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="I6" s="27">
-        <v>1</v>
-      </c>
-      <c r="J6" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="K6" s="30"/>
-      <c r="L6" s="27"/>
-      <c r="M6" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N6" s="31">
-        <v>1</v>
-      </c>
-      <c r="O6" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="P6" s="32"/>
-    </row>
-    <row r="7" spans="1:17" customHeight="1" ht="72">
-      <c r="A7" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" s="2">
-        <v>2020</v>
-      </c>
-      <c r="D7" s="2">
-        <v>131</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="G7" s="27">
-        <v>1</v>
-      </c>
-      <c r="H7" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="I7" s="27">
-        <v>2</v>
-      </c>
-      <c r="J7" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="K7" s="30"/>
-      <c r="L7" s="27">
-        <v>50</v>
-      </c>
-      <c r="M7" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N7" s="31"/>
-      <c r="O7" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="P7" s="32"/>
-    </row>
-    <row r="8" spans="1:17" customHeight="1" ht="72">
-      <c r="A8" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B8" s="2">
-        <v>26</v>
-      </c>
-      <c r="D8" s="2">
-        <v>132</v>
-      </c>
-      <c r="E8" s="2"/>
-      <c r="G8" s="27">
-        <v>2</v>
-      </c>
-      <c r="H8" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="I8" s="27">
-        <v>2</v>
-      </c>
-      <c r="J8" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="K8" s="30"/>
-      <c r="L8" s="27">
-        <v>100</v>
-      </c>
-      <c r="M8" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N8" s="31">
-        <v>2</v>
-      </c>
-      <c r="O8" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="P8" s="32"/>
-    </row>
-    <row r="9" spans="1:17" customHeight="1" ht="72">
-      <c r="A9" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="B9" s="4">
-        <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
-        <v>2022</v>
-      </c>
-      <c r="D9" s="2">
-        <v>133</v>
-      </c>
-      <c r="E9" s="2"/>
-      <c r="G9" s="27">
-        <v>3</v>
-      </c>
-      <c r="H9" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="I9" s="27">
-        <v>2</v>
-      </c>
-      <c r="J9" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="K9" s="30"/>
-      <c r="L9" s="27">
-        <v>100</v>
-      </c>
-      <c r="M9" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N9" s="31"/>
-      <c r="O9" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="P9" s="32"/>
-    </row>
-    <row r="10" spans="1:17" customHeight="1" ht="72">
-      <c r="A10" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B10" s="6">
-        <f>NOW()</f>
-        <v>44336.445729167</v>
-      </c>
-      <c r="D10" s="2">
-        <v>134</v>
-      </c>
-      <c r="E10" s="2"/>
-      <c r="G10" s="27">
-        <v>4</v>
-      </c>
-      <c r="H10" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="I10" s="27">
-        <v>2</v>
-      </c>
-      <c r="J10" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="K10" s="30"/>
-      <c r="L10" s="27">
-        <v>100</v>
-      </c>
-      <c r="M10" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N10" s="31">
-        <v>2</v>
-      </c>
-      <c r="O10" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="P10" s="32"/>
-    </row>
-    <row r="11" spans="1:17" customHeight="1" ht="72">
-      <c r="A11" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B11" s="4">
-        <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
-        <v>2020</v>
-      </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="G11" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H11" s="28"/>
-      <c r="I11" s="27"/>
-      <c r="J11" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K11" s="30"/>
-      <c r="L11" s="27"/>
-      <c r="M11" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N11" s="31"/>
-      <c r="O11" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P11" s="32"/>
-    </row>
-    <row r="12" spans="1:17">
-      <c r="A12" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="B12" s="4" t="str">
-        <f>CONCATENATE(B11," - ",B11+1)</f>
-        <v>2020 - 2021</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
-      <c r="A13" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B13" s="4">
-        <f>B7-B11</f>
-        <v>0</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="2">
-        <v>63</v>
-      </c>
-      <c r="G13" s="33" t="str">
-        <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  GS leerlaag H4 (schooljaar 2020 - 2021)</v>
-      </c>
-      <c r="H13" s="33"/>
-      <c r="I13" s="33"/>
-      <c r="J13" s="33"/>
-      <c r="K13" s="33"/>
-      <c r="L13" s="33"/>
-      <c r="M13" s="33"/>
-    </row>
-    <row r="14" spans="1:17" customHeight="1" ht="72">
-      <c r="A14" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B14" s="7">
-        <f>4+B11-B7</f>
-        <v>4</v>
-      </c>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="34"/>
-      <c r="K14" s="34"/>
-      <c r="L14" s="34"/>
-      <c r="M14" s="34"/>
-    </row>
-    <row r="16" spans="1:17" customHeight="1" ht="30.75">
-      <c r="C16" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D16" s="2"/>
-      <c r="G16" s="17" t="str">
-        <f>CONCATENATE(B4," leerlaag ",B6,"5 (schooljaar ",B7+1," - ",B7+2,")")</f>
-        <v>GS leerlaag H5 (schooljaar 2021 - 2022)</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" customHeight="1" ht="34.5">
-      <c r="D17" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E17" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="G17" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="H17" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="I17" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="J17" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="K17" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="L17" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="M17" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="N17" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="O17" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="P17" s="20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" customHeight="1" ht="72">
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="G18" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H18" s="28"/>
-      <c r="I18" s="27"/>
-      <c r="J18" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K18" s="30"/>
-      <c r="L18" s="27"/>
-      <c r="M18" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N18" s="31"/>
-      <c r="O18" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P18" s="32"/>
-    </row>
-    <row r="19" spans="1:17" customHeight="1" ht="72">
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="G19" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H19" s="28"/>
-      <c r="I19" s="27"/>
-      <c r="J19" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K19" s="30"/>
-      <c r="L19" s="27"/>
-      <c r="M19" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N19" s="31"/>
-      <c r="O19" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P19" s="32"/>
-    </row>
-    <row r="20" spans="1:17" customHeight="1" ht="72">
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="G20" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H20" s="28"/>
-      <c r="I20" s="27"/>
-      <c r="J20" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K20" s="30"/>
-      <c r="L20" s="27"/>
-      <c r="M20" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N20" s="31"/>
-      <c r="O20" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P20" s="32"/>
-    </row>
-    <row r="21" spans="1:17" customHeight="1" ht="72">
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="G21" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H21" s="28"/>
-      <c r="I21" s="27"/>
-      <c r="J21" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K21" s="30"/>
-      <c r="L21" s="27"/>
-      <c r="M21" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N21" s="31"/>
-      <c r="O21" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P21" s="32"/>
-    </row>
-    <row r="22" spans="1:17" customHeight="1" ht="72">
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="G22" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H22" s="28"/>
-      <c r="I22" s="27"/>
-      <c r="J22" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K22" s="30"/>
-      <c r="L22" s="27"/>
-      <c r="M22" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N22" s="31"/>
-      <c r="O22" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P22" s="32"/>
-    </row>
-    <row r="23" spans="1:17" customHeight="1" ht="72">
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="G23" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H23" s="28"/>
-      <c r="I23" s="27"/>
-      <c r="J23" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K23" s="30"/>
-      <c r="L23" s="27"/>
-      <c r="M23" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N23" s="31"/>
-      <c r="O23" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P23" s="32"/>
-    </row>
-    <row r="25" spans="1:17">
-      <c r="C25" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D25" s="2">
-        <v>64</v>
-      </c>
-      <c r="G25" s="33" t="str">
-        <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  GS leerlaag H5 (schooljaar 2021 - 2022)</v>
-      </c>
-      <c r="H25" s="33"/>
-      <c r="I25" s="33"/>
-      <c r="J25" s="33"/>
-      <c r="K25" s="33"/>
-      <c r="L25" s="33"/>
-      <c r="M25" s="33"/>
-    </row>
-    <row r="26" spans="1:17" customHeight="1" ht="72">
-      <c r="G26" s="34"/>
-      <c r="H26" s="34"/>
-      <c r="I26" s="34"/>
-      <c r="J26" s="34"/>
-      <c r="K26" s="34"/>
-      <c r="L26" s="34"/>
-      <c r="M26" s="34"/>
-    </row>
-    <row r="28" spans="1:17" customHeight="1" ht="30.75">
-      <c r="C28" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D28" s="2"/>
-      <c r="G28" s="17" t="str">
-        <f>CONCATENATE(B4," leerlaag ",B6,"6 (schooljaar ",B7+2," - ",B9,")")</f>
-        <v>GS leerlaag H6 (schooljaar 2022 - 2022)</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" customHeight="1" ht="34.5">
-      <c r="D29" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E29" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="G29" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="H29" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="I29" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="J29" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="K29" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="L29" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="M29" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="N29" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="O29" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="P29" s="20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" customHeight="1" ht="72">
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="G30" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H30" s="28"/>
-      <c r="I30" s="27"/>
-      <c r="J30" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K30" s="30"/>
-      <c r="L30" s="27"/>
-      <c r="M30" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N30" s="31"/>
-      <c r="O30" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P30" s="32"/>
-    </row>
-    <row r="31" spans="1:17" customHeight="1" ht="72">
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="G31" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H31" s="28"/>
-      <c r="I31" s="27"/>
-      <c r="J31" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K31" s="30"/>
-      <c r="L31" s="27"/>
-      <c r="M31" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N31" s="31"/>
-      <c r="O31" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P31" s="32"/>
-    </row>
-    <row r="32" spans="1:17" customHeight="1" ht="72">
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="G32" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H32" s="28"/>
-      <c r="I32" s="27"/>
-      <c r="J32" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K32" s="30"/>
-      <c r="L32" s="27"/>
-      <c r="M32" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N32" s="31"/>
-      <c r="O32" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P32" s="32"/>
-    </row>
-    <row r="33" spans="1:17" customHeight="1" ht="72">
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="G33" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H33" s="28"/>
-      <c r="I33" s="27"/>
-      <c r="J33" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K33" s="30"/>
-      <c r="L33" s="27"/>
-      <c r="M33" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N33" s="31"/>
-      <c r="O33" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P33" s="32"/>
-    </row>
-    <row r="34" spans="1:17" customHeight="1" ht="72">
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="G34" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H34" s="28"/>
-      <c r="I34" s="27"/>
-      <c r="J34" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K34" s="30"/>
-      <c r="L34" s="27"/>
-      <c r="M34" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N34" s="31"/>
-      <c r="O34" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P34" s="32"/>
-    </row>
-    <row r="35" spans="1:17" customHeight="1" ht="72">
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="G35" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H35" s="28"/>
-      <c r="I35" s="27"/>
-      <c r="J35" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K35" s="30"/>
-      <c r="L35" s="27"/>
-      <c r="M35" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N35" s="31"/>
-      <c r="O35" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P35" s="32"/>
-    </row>
-    <row r="37" spans="1:17">
-      <c r="C37" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D37" s="2"/>
-      <c r="G37" s="33" t="str">
-        <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  GS leerlaag H6 (schooljaar 2022 - 2022)</v>
-      </c>
-      <c r="H37" s="33"/>
-      <c r="I37" s="33"/>
-      <c r="J37" s="33"/>
-      <c r="K37" s="33"/>
-      <c r="L37" s="33"/>
-      <c r="M37" s="33"/>
-    </row>
-    <row r="38" spans="1:17" customHeight="1" ht="72">
-      <c r="G38" s="34"/>
-      <c r="H38" s="34"/>
-      <c r="I38" s="34"/>
-      <c r="J38" s="34"/>
-      <c r="K38" s="34"/>
-      <c r="L38" s="34"/>
-      <c r="M38" s="34"/>
-    </row>
-  </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="K8dvRg92i6t2Teov+MuO3P5bRiICyj5Bf+rKucbGl7PSPcccuCNH279qGmcaWD4+RRRXhp8n/KJ4/sC46gH8qw==" saltValue="/6xjLhdUXCbSwxjIYy2m3w==" spinCount="100000" sheet="true" objects="true" scenarios="true" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <mergeCells>
-    <mergeCell ref="G37:M37"/>
-    <mergeCell ref="G38:M38"/>
-    <mergeCell ref="G14:M14"/>
-    <mergeCell ref="G2:M2"/>
-    <mergeCell ref="G13:M13"/>
-    <mergeCell ref="G25:M25"/>
-    <mergeCell ref="G26:M26"/>
-  </mergeCells>
-  <conditionalFormatting sqref="J6:J11">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>ISBLANK($J6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J18:J23">
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>ISBLANK($J18)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J30:J35">
-    <cfRule type="expression" dxfId="2" priority="3">
-      <formula>ISBLANK($J30)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M6:M11">
-    <cfRule type="expression" dxfId="3" priority="4">
-      <formula>ISBLANK($M6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M18:M23">
-    <cfRule type="expression" dxfId="4" priority="5">
-      <formula>ISBLANK($M18)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M30:M35">
-    <cfRule type="expression" dxfId="5" priority="6">
-      <formula>ISBLANK($M30)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O6:O11">
-    <cfRule type="expression" dxfId="6" priority="7">
-      <formula>ISBLANK($O6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O18:O23">
-    <cfRule type="expression" dxfId="7" priority="8">
-      <formula>ISBLANK($O18)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O30:O35">
-    <cfRule type="expression" dxfId="8" priority="9">
-      <formula>ISBLANK($O30)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="12">
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G6:G11">
-      <formula1>instellingen!$G$2:$G$6</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G18:G23">
-      <formula1>instellingen!$G$2:$G$6</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G30:G35">
-      <formula1>instellingen!$G$2:$G$6</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J6:J11">
-      <formula1>instellingen!$H$2:$H$7</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J18:J23">
-      <formula1>instellingen!$H$2:$H$7</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J30:J35">
-      <formula1>instellingen!$H$2:$H$7</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M6:M11">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M18:M23">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M30:M35">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O6:O11">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O18:O23">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O30:O35">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-  </dataValidations>
-  <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" r:id="rId1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
   <sheetPr>
@@ -8280,7 +9138,7 @@
       </c>
       <c r="G2" s="35" t="str">
         <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
-        <v>Dit is het programma van de huidige H5 (cohort 2019 - 2021)</v>
+        <v>Dit is het programma van de huidige H4 (cohort 2020 - 2022)</v>
       </c>
       <c r="H2" s="35"/>
       <c r="I2" s="35"/>
@@ -8311,7 +9169,7 @@
       <c r="D4" s="2"/>
       <c r="G4" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"4 (schooljaar ",B7," - ",B7+1,")")</f>
-        <v>GS leerlaag H4 (schooljaar 2019 - 2020)</v>
+        <v>GS leerlaag H4 (schooljaar 2020 - 2021)</v>
       </c>
     </row>
     <row r="5" spans="1:17" customHeight="1" ht="34.5">
@@ -8363,50 +9221,68 @@
         <v>41</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D6" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="D6" s="2">
+        <v>130</v>
+      </c>
       <c r="E6" s="2"/>
-      <c r="G6" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6" s="28"/>
-      <c r="I6" s="27"/>
+      <c r="G6" s="27">
+        <v>1</v>
+      </c>
+      <c r="H6" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="I6" s="27">
+        <v>1</v>
+      </c>
       <c r="J6" s="29" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="K6" s="30"/>
       <c r="L6" s="27"/>
       <c r="M6" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N6" s="31"/>
+        <v>8</v>
+      </c>
+      <c r="N6" s="31">
+        <v>1</v>
+      </c>
       <c r="O6" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P6" s="32"/>
+        <v>11</v>
+      </c>
+      <c r="P6" s="32" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="7" spans="1:17" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
         <v>42</v>
       </c>
       <c r="B7" s="2">
-        <v>2019</v>
-      </c>
-      <c r="D7" s="2"/>
+        <v>2020</v>
+      </c>
+      <c r="D7" s="2">
+        <v>131</v>
+      </c>
       <c r="E7" s="2"/>
-      <c r="G7" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H7" s="28"/>
-      <c r="I7" s="27"/>
+      <c r="G7" s="27">
+        <v>1</v>
+      </c>
+      <c r="H7" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="I7" s="27">
+        <v>2</v>
+      </c>
       <c r="J7" s="29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K7" s="30"/>
-      <c r="L7" s="27"/>
+      <c r="L7" s="27">
+        <v>50</v>
+      </c>
       <c r="M7" s="27" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N7" s="31"/>
       <c r="O7" s="31" t="s">
@@ -8419,28 +9295,40 @@
         <v>43</v>
       </c>
       <c r="B8" s="2">
-        <v>27</v>
-      </c>
-      <c r="D8" s="2"/>
+        <v>26</v>
+      </c>
+      <c r="D8" s="2">
+        <v>132</v>
+      </c>
       <c r="E8" s="2"/>
-      <c r="G8" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H8" s="28"/>
-      <c r="I8" s="27"/>
+      <c r="G8" s="27">
+        <v>2</v>
+      </c>
+      <c r="H8" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="I8" s="27">
+        <v>2</v>
+      </c>
       <c r="J8" s="29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K8" s="30"/>
-      <c r="L8" s="27"/>
+      <c r="L8" s="27">
+        <v>100</v>
+      </c>
       <c r="M8" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N8" s="31"/>
+        <v>8</v>
+      </c>
+      <c r="N8" s="31">
+        <v>2</v>
+      </c>
       <c r="O8" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P8" s="32"/>
+        <v>8</v>
+      </c>
+      <c r="P8" s="32" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="9" spans="1:17" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
@@ -8448,22 +9336,30 @@
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
-        <v>2021</v>
-      </c>
-      <c r="D9" s="2"/>
+        <v>2022</v>
+      </c>
+      <c r="D9" s="2">
+        <v>133</v>
+      </c>
       <c r="E9" s="2"/>
-      <c r="G9" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H9" s="28"/>
-      <c r="I9" s="27"/>
+      <c r="G9" s="27">
+        <v>3</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="I9" s="27">
+        <v>2</v>
+      </c>
       <c r="J9" s="29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K9" s="30"/>
-      <c r="L9" s="27"/>
+      <c r="L9" s="27">
+        <v>100</v>
+      </c>
       <c r="M9" s="27" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N9" s="31"/>
       <c r="O9" s="31" t="s">
@@ -8477,28 +9373,40 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44336.445729167</v>
-      </c>
-      <c r="D10" s="2"/>
+        <v>44340.444085648</v>
+      </c>
+      <c r="D10" s="2">
+        <v>134</v>
+      </c>
       <c r="E10" s="2"/>
-      <c r="G10" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H10" s="28"/>
-      <c r="I10" s="27"/>
+      <c r="G10" s="27">
+        <v>4</v>
+      </c>
+      <c r="H10" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="I10" s="27">
+        <v>2</v>
+      </c>
       <c r="J10" s="29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K10" s="30"/>
-      <c r="L10" s="27"/>
+      <c r="L10" s="27">
+        <v>100</v>
+      </c>
       <c r="M10" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N10" s="31"/>
+        <v>8</v>
+      </c>
+      <c r="N10" s="31">
+        <v>2</v>
+      </c>
       <c r="O10" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P10" s="32"/>
+        <v>8</v>
+      </c>
+      <c r="P10" s="32" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="11" spans="1:17" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
@@ -8544,17 +9452,17 @@
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>28</v>
       </c>
       <c r="D13" s="2">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G13" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  GS leerlaag H4 (schooljaar 2019 - 2020)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van  GS leerlaag H4 (schooljaar 2020 - 2021)</v>
       </c>
       <c r="H13" s="33"/>
       <c r="I13" s="33"/>
@@ -8569,7 +9477,7 @@
       </c>
       <c r="B14" s="7">
         <f>4+B11-B7</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G14" s="34"/>
       <c r="H14" s="34"/>
@@ -8586,7 +9494,7 @@
       <c r="D16" s="2"/>
       <c r="G16" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"5 (schooljaar ",B7+1," - ",B7+2,")")</f>
-        <v>GS leerlaag H5 (schooljaar 2020 - 2021)</v>
+        <v>GS leerlaag H5 (schooljaar 2021 - 2022)</v>
       </c>
     </row>
     <row r="17" spans="1:17" customHeight="1" ht="34.5">
@@ -8628,92 +9536,68 @@
       </c>
     </row>
     <row r="18" spans="1:17" customHeight="1" ht="72">
-      <c r="D18" s="2">
-        <v>135</v>
-      </c>
+      <c r="D18" s="2"/>
       <c r="E18" s="2"/>
-      <c r="G18" s="27">
-        <v>1</v>
-      </c>
-      <c r="H18" s="28" t="s">
-        <v>80</v>
-      </c>
+      <c r="G18" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H18" s="28"/>
       <c r="I18" s="27"/>
       <c r="J18" s="29" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K18" s="30"/>
-      <c r="L18" s="27">
-        <v>100</v>
-      </c>
+      <c r="L18" s="27"/>
       <c r="M18" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N18" s="31">
-        <v>3</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N18" s="31"/>
       <c r="O18" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P18" s="32"/>
     </row>
     <row r="19" spans="1:17" customHeight="1" ht="72">
-      <c r="D19" s="2">
-        <v>136</v>
-      </c>
+      <c r="D19" s="2"/>
       <c r="E19" s="2"/>
-      <c r="G19" s="27">
-        <v>2</v>
-      </c>
-      <c r="H19" s="28" t="s">
-        <v>81</v>
-      </c>
+      <c r="G19" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H19" s="28"/>
       <c r="I19" s="27"/>
       <c r="J19" s="29" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K19" s="30"/>
-      <c r="L19" s="27">
-        <v>100</v>
-      </c>
+      <c r="L19" s="27"/>
       <c r="M19" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N19" s="31">
-        <v>3</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N19" s="31"/>
       <c r="O19" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P19" s="32"/>
     </row>
     <row r="20" spans="1:17" customHeight="1" ht="72">
-      <c r="D20" s="2">
-        <v>137</v>
-      </c>
+      <c r="D20" s="2"/>
       <c r="E20" s="2"/>
-      <c r="G20" s="27">
-        <v>3</v>
-      </c>
-      <c r="H20" s="28" t="s">
-        <v>82</v>
-      </c>
+      <c r="G20" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H20" s="28"/>
       <c r="I20" s="27"/>
       <c r="J20" s="29" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K20" s="30"/>
-      <c r="L20" s="27">
-        <v>100</v>
-      </c>
+      <c r="L20" s="27"/>
       <c r="M20" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N20" s="31">
-        <v>3</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N20" s="31"/>
       <c r="O20" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P20" s="32"/>
     </row>
@@ -8788,11 +9672,11 @@
         <v>28</v>
       </c>
       <c r="D25" s="2">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G25" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  GS leerlaag H5 (schooljaar 2020 - 2021)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van  GS leerlaag H5 (schooljaar 2021 - 2022)</v>
       </c>
       <c r="H25" s="33"/>
       <c r="I25" s="33"/>
@@ -8817,7 +9701,7 @@
       <c r="D28" s="2"/>
       <c r="G28" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"6 (schooljaar ",B7+2," - ",B9,")")</f>
-        <v>GS leerlaag H6 (schooljaar 2021 - 2021)</v>
+        <v>GS leerlaag H6 (schooljaar 2022 - 2022)</v>
       </c>
     </row>
     <row r="29" spans="1:17" customHeight="1" ht="34.5">
@@ -8997,7 +9881,7 @@
       <c r="D37" s="2"/>
       <c r="G37" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  GS leerlaag H6 (schooljaar 2021 - 2021)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van  GS leerlaag H6 (schooljaar 2022 - 2022)</v>
       </c>
       <c r="H37" s="33"/>
       <c r="I37" s="33"/>
@@ -9167,12 +10051,12 @@
       <c r="A2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="2">
-        <v>0</v>
+      <c r="B2" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="G2" s="35" t="str">
         <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
-        <v>verouderd PTA</v>
+        <v>Dit is het programma van de huidige H5 (cohort 2019 - 2021)</v>
       </c>
       <c r="H2" s="35"/>
       <c r="I2" s="35"/>
@@ -9194,21 +10078,25 @@
       <c r="A4" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="2"/>
+      <c r="B4" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="C4" s="9" t="s">
         <v>28</v>
       </c>
       <c r="D4" s="2"/>
       <c r="G4" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"4 (schooljaar ",B7," - ",B7+1,")")</f>
-        <v> leerlaag 4 (schooljaar  - 1)</v>
+        <v>GS leerlaag H4 (schooljaar 2019 - 2020)</v>
       </c>
     </row>
     <row r="5" spans="1:17" customHeight="1" ht="34.5">
       <c r="A5" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="2"/>
+      <c r="B5" s="2">
+        <v>21</v>
+      </c>
       <c r="D5" s="7" t="s">
         <v>30</v>
       </c>
@@ -9250,7 +10138,9 @@
       <c r="A6" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="2"/>
+      <c r="B6" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="G6" s="27" t="s">
@@ -9276,7 +10166,9 @@
       <c r="A7" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" s="2">
+        <v>2019</v>
+      </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="G7" s="27" t="s">
@@ -9302,7 +10194,9 @@
       <c r="A8" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="2"/>
+      <c r="B8" s="2">
+        <v>27</v>
+      </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="G8" s="27" t="s">
@@ -9330,7 +10224,7 @@
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
-        <v>1</v>
+        <v>2021</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -9359,7 +10253,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44336.445729167</v>
+        <v>44340.444085648</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -9426,15 +10320,17 @@
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
-        <v>-2020</v>
+        <v>-1</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" s="2">
+        <v>65</v>
+      </c>
       <c r="G13" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van   leerlaag 4 (schooljaar  - 1)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van  GS leerlaag H4 (schooljaar 2019 - 2020)</v>
       </c>
       <c r="H13" s="33"/>
       <c r="I13" s="33"/>
@@ -9449,7 +10345,7 @@
       </c>
       <c r="B14" s="7">
         <f>4+B11-B7</f>
-        <v>2024</v>
+        <v>5</v>
       </c>
       <c r="G14" s="34"/>
       <c r="H14" s="34"/>
@@ -9466,7 +10362,7 @@
       <c r="D16" s="2"/>
       <c r="G16" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"5 (schooljaar ",B7+1," - ",B7+2,")")</f>
-        <v> leerlaag 5 (schooljaar 1 - 2)</v>
+        <v>GS leerlaag H5 (schooljaar 2020 - 2021)</v>
       </c>
     </row>
     <row r="17" spans="1:17" customHeight="1" ht="34.5">
@@ -9508,70 +10404,100 @@
       </c>
     </row>
     <row r="18" spans="1:17" customHeight="1" ht="72">
-      <c r="D18" s="2"/>
+      <c r="D18" s="2">
+        <v>135</v>
+      </c>
       <c r="E18" s="2"/>
-      <c r="G18" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H18" s="28"/>
+      <c r="G18" s="27">
+        <v>1</v>
+      </c>
+      <c r="H18" s="28" t="s">
+        <v>90</v>
+      </c>
       <c r="I18" s="27"/>
       <c r="J18" s="29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K18" s="30"/>
-      <c r="L18" s="27"/>
+      <c r="L18" s="27">
+        <v>100</v>
+      </c>
       <c r="M18" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N18" s="31"/>
+        <v>8</v>
+      </c>
+      <c r="N18" s="31">
+        <v>3</v>
+      </c>
       <c r="O18" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P18" s="32"/>
+        <v>8</v>
+      </c>
+      <c r="P18" s="32" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="19" spans="1:17" customHeight="1" ht="72">
-      <c r="D19" s="2"/>
+      <c r="D19" s="2">
+        <v>136</v>
+      </c>
       <c r="E19" s="2"/>
-      <c r="G19" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H19" s="28"/>
+      <c r="G19" s="27">
+        <v>2</v>
+      </c>
+      <c r="H19" s="28" t="s">
+        <v>92</v>
+      </c>
       <c r="I19" s="27"/>
       <c r="J19" s="29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K19" s="30"/>
-      <c r="L19" s="27"/>
+      <c r="L19" s="27">
+        <v>100</v>
+      </c>
       <c r="M19" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N19" s="31"/>
+        <v>8</v>
+      </c>
+      <c r="N19" s="31">
+        <v>3</v>
+      </c>
       <c r="O19" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P19" s="32"/>
+        <v>8</v>
+      </c>
+      <c r="P19" s="32" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="20" spans="1:17" customHeight="1" ht="72">
-      <c r="D20" s="2"/>
+      <c r="D20" s="2">
+        <v>137</v>
+      </c>
       <c r="E20" s="2"/>
-      <c r="G20" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H20" s="28"/>
+      <c r="G20" s="27">
+        <v>3</v>
+      </c>
+      <c r="H20" s="28" t="s">
+        <v>94</v>
+      </c>
       <c r="I20" s="27"/>
       <c r="J20" s="29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K20" s="30"/>
-      <c r="L20" s="27"/>
+      <c r="L20" s="27">
+        <v>100</v>
+      </c>
       <c r="M20" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N20" s="31"/>
+        <v>8</v>
+      </c>
+      <c r="N20" s="31">
+        <v>3</v>
+      </c>
       <c r="O20" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P20" s="32"/>
+        <v>8</v>
+      </c>
+      <c r="P20" s="32" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="21" spans="1:17" customHeight="1" ht="72">
       <c r="D21" s="2"/>
@@ -9643,10 +10569,12 @@
       <c r="C25" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="2"/>
+      <c r="D25" s="2">
+        <v>66</v>
+      </c>
       <c r="G25" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van   leerlaag 5 (schooljaar 1 - 2)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van  GS leerlaag H5 (schooljaar 2020 - 2021)</v>
       </c>
       <c r="H25" s="33"/>
       <c r="I25" s="33"/>
@@ -9671,7 +10599,7 @@
       <c r="D28" s="2"/>
       <c r="G28" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"6 (schooljaar ",B7+2," - ",B9,")")</f>
-        <v> leerlaag 6 (schooljaar 2 - 1)</v>
+        <v>GS leerlaag H6 (schooljaar 2021 - 2021)</v>
       </c>
     </row>
     <row r="29" spans="1:17" customHeight="1" ht="34.5">
@@ -9851,7 +10779,7 @@
       <c r="D37" s="2"/>
       <c r="G37" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van   leerlaag 6 (schooljaar 2 - 1)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van  GS leerlaag H6 (schooljaar 2021 - 2021)</v>
       </c>
       <c r="H37" s="33"/>
       <c r="I37" s="33"/>
@@ -9925,6 +10853,44 @@
       <formula>ISBLANK($O30)</formula>
     </cfRule>
   </conditionalFormatting>
+  <dataValidations count="12">
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G6:G11">
+      <formula1>instellingen!$G$2:$G$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G18:G23">
+      <formula1>instellingen!$G$2:$G$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G30:G35">
+      <formula1>instellingen!$G$2:$G$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J6:J11">
+      <formula1>instellingen!$H$2:$H$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J18:J23">
+      <formula1>instellingen!$H$2:$H$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J30:J35">
+      <formula1>instellingen!$H$2:$H$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M6:M11">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M18:M23">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M30:M35">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O6:O11">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O18:O23">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O30:O35">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+  </dataValidations>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" r:id="rId1"/>

--- a/public/cohort/fileExcel/xlsxUIT/GS PTA en onderwijsprogramma.xlsx
+++ b/public/cohort/fileExcel/xlsxUIT/GS PTA en onderwijsprogramma.xlsx
@@ -1590,7 +1590,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44340.809189815</v>
+        <v>44341.376574074</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -2308,7 +2308,7 @@
       <c r="Q38" s="31"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="SrX3S+ZNQoctHKAEl4ooEqJ3r4tBtF75kCSPVMl9RCxk7BUvQA71JlF2cy7orB5a5+HvCXP+BUo+YzbIklQFYA==" saltValue="+Q/96ROk+k5baqU9EJnmoQ==" spinCount="100000" sheet="true" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="G37:M37"/>
     <mergeCell ref="G38:M38"/>
@@ -2712,7 +2712,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44340.809189815</v>
+        <v>44341.376574074</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -3418,7 +3418,7 @@
       <c r="Q38" s="31"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="SrX3S+ZNQoctHKAEl4ooEqJ3r4tBtF75kCSPVMl9RCxk7BUvQA71JlF2cy7orB5a5+HvCXP+BUo+YzbIklQFYA==" saltValue="+Q/96ROk+k5baqU9EJnmoQ==" spinCount="100000" sheet="true" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="G37:M37"/>
     <mergeCell ref="G38:M38"/>
@@ -3901,7 +3901,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44340.809189815</v>
+        <v>44341.376574074</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -4575,7 +4575,7 @@
       <c r="Q38" s="31"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="SrX3S+ZNQoctHKAEl4ooEqJ3r4tBtF75kCSPVMl9RCxk7BUvQA71JlF2cy7orB5a5+HvCXP+BUo+YzbIklQFYA==" saltValue="+Q/96ROk+k5baqU9EJnmoQ==" spinCount="100000" sheet="true" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="G37:M37"/>
     <mergeCell ref="G38:M38"/>
@@ -4976,7 +4976,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44340.809189815</v>
+        <v>44341.376574074</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -5680,7 +5680,7 @@
       <c r="Q38" s="31"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="SrX3S+ZNQoctHKAEl4ooEqJ3r4tBtF75kCSPVMl9RCxk7BUvQA71JlF2cy7orB5a5+HvCXP+BUo+YzbIklQFYA==" saltValue="+Q/96ROk+k5baqU9EJnmoQ==" spinCount="100000" sheet="true" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="G37:M37"/>
     <mergeCell ref="G38:M38"/>
@@ -6081,7 +6081,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44340.809189815</v>
+        <v>44341.376574074</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -6755,7 +6755,7 @@
       <c r="Q38" s="31"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="SrX3S+ZNQoctHKAEl4ooEqJ3r4tBtF75kCSPVMl9RCxk7BUvQA71JlF2cy7orB5a5+HvCXP+BUo+YzbIklQFYA==" saltValue="+Q/96ROk+k5baqU9EJnmoQ==" spinCount="100000" sheet="true" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="G37:M37"/>
     <mergeCell ref="G38:M38"/>
@@ -7197,7 +7197,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44340.809189815</v>
+        <v>44341.376574074</v>
       </c>
       <c r="D10" s="2">
         <v>134</v>
@@ -7883,7 +7883,7 @@
       <c r="Q38" s="31"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="SrX3S+ZNQoctHKAEl4ooEqJ3r4tBtF75kCSPVMl9RCxk7BUvQA71JlF2cy7orB5a5+HvCXP+BUo+YzbIklQFYA==" saltValue="+Q/96ROk+k5baqU9EJnmoQ==" spinCount="100000" sheet="true" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="G37:M37"/>
     <mergeCell ref="G38:M38"/>
@@ -8287,7 +8287,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44340.809189815</v>
+        <v>44341.376574074</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -8991,7 +8991,7 @@
       <c r="Q38" s="31"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="SrX3S+ZNQoctHKAEl4ooEqJ3r4tBtF75kCSPVMl9RCxk7BUvQA71JlF2cy7orB5a5+HvCXP+BUo+YzbIklQFYA==" saltValue="+Q/96ROk+k5baqU9EJnmoQ==" spinCount="100000" sheet="true" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="G37:M37"/>
     <mergeCell ref="G38:M38"/>
@@ -9395,7 +9395,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44340.809189815</v>
+        <v>44341.376574074</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -10071,7 +10071,7 @@
       <c r="Q38" s="31"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="SrX3S+ZNQoctHKAEl4ooEqJ3r4tBtF75kCSPVMl9RCxk7BUvQA71JlF2cy7orB5a5+HvCXP+BUo+YzbIklQFYA==" saltValue="+Q/96ROk+k5baqU9EJnmoQ==" spinCount="100000" sheet="true" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="G37:M37"/>
     <mergeCell ref="G38:M38"/>
@@ -10509,7 +10509,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44340.809189815</v>
+        <v>44341.376574074</v>
       </c>
       <c r="D10" s="2">
         <v>142</v>
@@ -11193,7 +11193,7 @@
       <c r="Q38" s="31"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="SrX3S+ZNQoctHKAEl4ooEqJ3r4tBtF75kCSPVMl9RCxk7BUvQA71JlF2cy7orB5a5+HvCXP+BUo+YzbIklQFYA==" saltValue="+Q/96ROk+k5baqU9EJnmoQ==" spinCount="100000" sheet="true" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="G37:M37"/>
     <mergeCell ref="G38:M38"/>

--- a/public/cohort/fileExcel/xlsxUIT/GS PTA en onderwijsprogramma.xlsx
+++ b/public/cohort/fileExcel/xlsxUIT/GS PTA en onderwijsprogramma.xlsx
@@ -2278,7 +2278,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44341.382638889</v>
+        <v>44342.629849537</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -2801,75 +2801,105 @@
       <c r="Q29" s="37"/>
     </row>
     <row r="30" spans="1:17" customHeight="1" ht="72">
-      <c r="D30" s="2"/>
+      <c r="D30" s="2">
+        <v>971</v>
+      </c>
       <c r="E30" s="2"/>
       <c r="F30" s="37"/>
-      <c r="G30" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H30" s="24"/>
+      <c r="G30" s="23">
+        <v>1</v>
+      </c>
+      <c r="H30" s="24" t="s">
+        <v>101</v>
+      </c>
       <c r="I30" s="23"/>
       <c r="J30" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K30" s="26"/>
-      <c r="L30" s="23"/>
+      <c r="L30" s="23">
+        <v>100</v>
+      </c>
       <c r="M30" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N30" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N30" s="27">
+        <v>3</v>
+      </c>
       <c r="O30" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P30" s="28"/>
+        <v>8</v>
+      </c>
+      <c r="P30" s="28" t="s">
+        <v>102</v>
+      </c>
       <c r="Q30" s="37"/>
     </row>
     <row r="31" spans="1:17" customHeight="1" ht="72">
-      <c r="D31" s="2"/>
+      <c r="D31" s="2">
+        <v>972</v>
+      </c>
       <c r="E31" s="2"/>
       <c r="F31" s="37"/>
-      <c r="G31" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H31" s="24"/>
+      <c r="G31" s="23">
+        <v>2</v>
+      </c>
+      <c r="H31" s="24" t="s">
+        <v>103</v>
+      </c>
       <c r="I31" s="23"/>
       <c r="J31" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K31" s="26"/>
-      <c r="L31" s="23"/>
+      <c r="L31" s="23">
+        <v>100</v>
+      </c>
       <c r="M31" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N31" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N31" s="27">
+        <v>3</v>
+      </c>
       <c r="O31" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P31" s="28"/>
+        <v>8</v>
+      </c>
+      <c r="P31" s="28" t="s">
+        <v>104</v>
+      </c>
       <c r="Q31" s="37"/>
     </row>
     <row r="32" spans="1:17" customHeight="1" ht="72">
-      <c r="D32" s="2"/>
+      <c r="D32" s="2">
+        <v>973</v>
+      </c>
       <c r="E32" s="2"/>
       <c r="F32" s="37"/>
-      <c r="G32" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H32" s="24"/>
+      <c r="G32" s="23">
+        <v>3</v>
+      </c>
+      <c r="H32" s="24" t="s">
+        <v>105</v>
+      </c>
       <c r="I32" s="23"/>
       <c r="J32" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K32" s="26"/>
-      <c r="L32" s="23"/>
+      <c r="L32" s="23">
+        <v>100</v>
+      </c>
       <c r="M32" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N32" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N32" s="27">
+        <v>3</v>
+      </c>
       <c r="O32" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P32" s="28"/>
+        <v>8</v>
+      </c>
+      <c r="P32" s="28" t="s">
+        <v>106</v>
+      </c>
       <c r="Q32" s="37"/>
     </row>
     <row r="33" spans="1:17" customHeight="1" ht="72">
@@ -3400,7 +3430,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44341.382638889</v>
+        <v>44342.629849537</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -4672,7 +4702,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44341.382638889</v>
+        <v>44342.629849537</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -4883,75 +4913,105 @@
       <c r="Q17" s="37"/>
     </row>
     <row r="18" spans="1:17" customHeight="1" ht="72">
-      <c r="D18" s="2"/>
+      <c r="D18" s="2">
+        <v>960</v>
+      </c>
       <c r="E18" s="2"/>
       <c r="F18" s="37"/>
-      <c r="G18" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H18" s="24"/>
+      <c r="G18" s="23">
+        <v>1</v>
+      </c>
+      <c r="H18" s="24" t="s">
+        <v>69</v>
+      </c>
       <c r="I18" s="23"/>
       <c r="J18" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K18" s="26"/>
-      <c r="L18" s="23"/>
+      <c r="L18" s="23">
+        <v>100</v>
+      </c>
       <c r="M18" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N18" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N18" s="27">
+        <v>1</v>
+      </c>
       <c r="O18" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P18" s="28"/>
+        <v>8</v>
+      </c>
+      <c r="P18" s="28" t="s">
+        <v>70</v>
+      </c>
       <c r="Q18" s="37"/>
     </row>
     <row r="19" spans="1:17" customHeight="1" ht="72">
-      <c r="D19" s="2"/>
+      <c r="D19" s="2">
+        <v>961</v>
+      </c>
       <c r="E19" s="2"/>
       <c r="F19" s="37"/>
-      <c r="G19" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H19" s="24"/>
+      <c r="G19" s="23">
+        <v>2</v>
+      </c>
+      <c r="H19" s="24" t="s">
+        <v>71</v>
+      </c>
       <c r="I19" s="23"/>
       <c r="J19" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K19" s="26"/>
-      <c r="L19" s="23"/>
+      <c r="L19" s="23">
+        <v>100</v>
+      </c>
       <c r="M19" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N19" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N19" s="27">
+        <v>1</v>
+      </c>
       <c r="O19" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P19" s="28"/>
+        <v>8</v>
+      </c>
+      <c r="P19" s="28" t="s">
+        <v>72</v>
+      </c>
       <c r="Q19" s="37"/>
     </row>
     <row r="20" spans="1:17" customHeight="1" ht="72">
-      <c r="D20" s="2"/>
+      <c r="D20" s="2">
+        <v>962</v>
+      </c>
       <c r="E20" s="2"/>
       <c r="F20" s="37"/>
-      <c r="G20" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H20" s="24"/>
+      <c r="G20" s="23">
+        <v>3</v>
+      </c>
+      <c r="H20" s="24" t="s">
+        <v>73</v>
+      </c>
       <c r="I20" s="23"/>
       <c r="J20" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K20" s="26"/>
-      <c r="L20" s="23"/>
+      <c r="L20" s="23">
+        <v>100</v>
+      </c>
       <c r="M20" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N20" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N20" s="27">
+        <v>1</v>
+      </c>
       <c r="O20" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P20" s="28"/>
+        <v>8</v>
+      </c>
+      <c r="P20" s="28" t="s">
+        <v>74</v>
+      </c>
       <c r="Q20" s="37"/>
     </row>
     <row r="21" spans="1:17" customHeight="1" ht="72">
@@ -5747,7 +5807,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44341.382638889</v>
+        <v>44342.629849537</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -6732,27 +6792,37 @@
       <c r="B6" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="D6" s="2">
+        <v>966</v>
+      </c>
       <c r="E6" s="2"/>
       <c r="F6" s="37"/>
-      <c r="G6" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6" s="24"/>
-      <c r="I6" s="23"/>
+      <c r="G6" s="23">
+        <v>1</v>
+      </c>
+      <c r="H6" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="I6" s="23">
+        <v>1</v>
+      </c>
       <c r="J6" s="25" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="K6" s="26"/>
       <c r="L6" s="23"/>
       <c r="M6" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N6" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N6" s="27">
+        <v>1</v>
+      </c>
       <c r="O6" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P6" s="28"/>
+        <v>11</v>
+      </c>
+      <c r="P6" s="28" t="s">
+        <v>77</v>
+      </c>
       <c r="Q6" s="37"/>
     </row>
     <row r="7" spans="1:17" customHeight="1" ht="72">
@@ -6762,21 +6832,29 @@
       <c r="B7" s="2">
         <v>2021</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="2">
+        <v>967</v>
+      </c>
       <c r="E7" s="2"/>
       <c r="F7" s="37"/>
-      <c r="G7" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H7" s="24"/>
-      <c r="I7" s="23"/>
+      <c r="G7" s="23">
+        <v>1</v>
+      </c>
+      <c r="H7" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="I7" s="23">
+        <v>2</v>
+      </c>
       <c r="J7" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K7" s="26"/>
-      <c r="L7" s="23"/>
+      <c r="L7" s="23">
+        <v>50</v>
+      </c>
       <c r="M7" s="23" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N7" s="27"/>
       <c r="O7" s="27" t="s">
@@ -6792,27 +6870,39 @@
       <c r="B8" s="2">
         <v>242</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="2">
+        <v>968</v>
+      </c>
       <c r="E8" s="2"/>
       <c r="F8" s="37"/>
-      <c r="G8" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H8" s="24"/>
-      <c r="I8" s="23"/>
+      <c r="G8" s="23">
+        <v>2</v>
+      </c>
+      <c r="H8" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="I8" s="23">
+        <v>2</v>
+      </c>
       <c r="J8" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K8" s="26"/>
-      <c r="L8" s="23"/>
+      <c r="L8" s="23">
+        <v>100</v>
+      </c>
       <c r="M8" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N8" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N8" s="27">
+        <v>2</v>
+      </c>
       <c r="O8" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P8" s="28"/>
+        <v>8</v>
+      </c>
+      <c r="P8" s="28" t="s">
+        <v>80</v>
+      </c>
       <c r="Q8" s="37"/>
     </row>
     <row r="9" spans="1:17" customHeight="1" ht="72">
@@ -6823,21 +6913,29 @@
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
         <v>2023</v>
       </c>
-      <c r="D9" s="2"/>
+      <c r="D9" s="2">
+        <v>969</v>
+      </c>
       <c r="E9" s="2"/>
       <c r="F9" s="37"/>
-      <c r="G9" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H9" s="24"/>
-      <c r="I9" s="23"/>
+      <c r="G9" s="23">
+        <v>3</v>
+      </c>
+      <c r="H9" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="I9" s="23">
+        <v>2</v>
+      </c>
       <c r="J9" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K9" s="26"/>
-      <c r="L9" s="23"/>
+      <c r="L9" s="23">
+        <v>100</v>
+      </c>
       <c r="M9" s="23" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N9" s="27"/>
       <c r="O9" s="27" t="s">
@@ -6852,29 +6950,41 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44341.382638889</v>
-      </c>
-      <c r="D10" s="2"/>
+        <v>44342.629849537</v>
+      </c>
+      <c r="D10" s="2">
+        <v>970</v>
+      </c>
       <c r="E10" s="2"/>
       <c r="F10" s="37"/>
-      <c r="G10" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H10" s="24"/>
-      <c r="I10" s="23"/>
+      <c r="G10" s="23">
+        <v>4</v>
+      </c>
+      <c r="H10" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="I10" s="23">
+        <v>2</v>
+      </c>
       <c r="J10" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K10" s="26"/>
-      <c r="L10" s="23"/>
+      <c r="L10" s="23">
+        <v>100</v>
+      </c>
       <c r="M10" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N10" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N10" s="27">
+        <v>2</v>
+      </c>
       <c r="O10" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P10" s="28"/>
+        <v>8</v>
+      </c>
+      <c r="P10" s="28" t="s">
+        <v>83</v>
+      </c>
       <c r="Q10" s="37"/>
     </row>
     <row r="11" spans="1:17" customHeight="1" ht="72">
@@ -7968,7 +8078,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44341.382638889</v>
+        <v>44342.629849537</v>
       </c>
       <c r="D10" s="2">
         <v>134</v>
@@ -8191,75 +8301,105 @@
       <c r="Q17" s="37"/>
     </row>
     <row r="18" spans="1:17" customHeight="1" ht="72">
-      <c r="D18" s="2"/>
+      <c r="D18" s="2">
+        <v>963</v>
+      </c>
       <c r="E18" s="2"/>
       <c r="F18" s="37"/>
-      <c r="G18" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H18" s="24"/>
+      <c r="G18" s="23">
+        <v>1</v>
+      </c>
+      <c r="H18" s="24" t="s">
+        <v>84</v>
+      </c>
       <c r="I18" s="23"/>
       <c r="J18" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K18" s="26"/>
-      <c r="L18" s="23"/>
+      <c r="L18" s="23">
+        <v>100</v>
+      </c>
       <c r="M18" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N18" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N18" s="27">
+        <v>3</v>
+      </c>
       <c r="O18" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P18" s="28"/>
+        <v>8</v>
+      </c>
+      <c r="P18" s="28" t="s">
+        <v>85</v>
+      </c>
       <c r="Q18" s="37"/>
     </row>
     <row r="19" spans="1:17" customHeight="1" ht="72">
-      <c r="D19" s="2"/>
+      <c r="D19" s="2">
+        <v>964</v>
+      </c>
       <c r="E19" s="2"/>
       <c r="F19" s="37"/>
-      <c r="G19" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H19" s="24"/>
+      <c r="G19" s="23">
+        <v>2</v>
+      </c>
+      <c r="H19" s="24" t="s">
+        <v>86</v>
+      </c>
       <c r="I19" s="23"/>
       <c r="J19" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K19" s="26"/>
-      <c r="L19" s="23"/>
+      <c r="L19" s="23">
+        <v>100</v>
+      </c>
       <c r="M19" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N19" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N19" s="27">
+        <v>3</v>
+      </c>
       <c r="O19" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P19" s="28"/>
+        <v>8</v>
+      </c>
+      <c r="P19" s="28" t="s">
+        <v>87</v>
+      </c>
       <c r="Q19" s="37"/>
     </row>
     <row r="20" spans="1:17" customHeight="1" ht="72">
-      <c r="D20" s="2"/>
+      <c r="D20" s="2">
+        <v>965</v>
+      </c>
       <c r="E20" s="2"/>
       <c r="F20" s="37"/>
-      <c r="G20" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H20" s="24"/>
+      <c r="G20" s="23">
+        <v>3</v>
+      </c>
+      <c r="H20" s="24" t="s">
+        <v>88</v>
+      </c>
       <c r="I20" s="23"/>
       <c r="J20" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K20" s="26"/>
-      <c r="L20" s="23"/>
+      <c r="L20" s="23">
+        <v>100</v>
+      </c>
       <c r="M20" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N20" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N20" s="27">
+        <v>3</v>
+      </c>
       <c r="O20" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P20" s="28"/>
+        <v>8</v>
+      </c>
+      <c r="P20" s="28" t="s">
+        <v>85</v>
+      </c>
       <c r="Q20" s="37"/>
     </row>
     <row r="21" spans="1:17" customHeight="1" ht="72">
@@ -9058,7 +9198,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44341.382638889</v>
+        <v>44342.629849537</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -10046,25 +10186,33 @@
       <c r="B6" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="D6" s="2">
+        <v>979</v>
+      </c>
       <c r="E6" s="2"/>
       <c r="F6" s="37"/>
-      <c r="G6" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6" s="24"/>
-      <c r="I6" s="23"/>
+      <c r="G6" s="23">
+        <v>1</v>
+      </c>
+      <c r="H6" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="I6" s="23">
+        <v>2</v>
+      </c>
       <c r="J6" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K6" s="26"/>
-      <c r="L6" s="23"/>
+      <c r="L6" s="23">
+        <v>30</v>
+      </c>
       <c r="M6" s="23" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N6" s="27"/>
-      <c r="O6" s="27" t="s">
-        <v>5</v>
+      <c r="O6" s="27">
+        <v>0</v>
       </c>
       <c r="P6" s="28"/>
       <c r="Q6" s="37"/>
@@ -10076,25 +10224,33 @@
       <c r="B7" s="2">
         <v>2021</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="2">
+        <v>980</v>
+      </c>
       <c r="E7" s="2"/>
       <c r="F7" s="37"/>
-      <c r="G7" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H7" s="24"/>
-      <c r="I7" s="23"/>
+      <c r="G7" s="23">
+        <v>1</v>
+      </c>
+      <c r="H7" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="I7" s="23">
+        <v>3</v>
+      </c>
       <c r="J7" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K7" s="26"/>
-      <c r="L7" s="23"/>
+      <c r="L7" s="23">
+        <v>50</v>
+      </c>
       <c r="M7" s="23" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N7" s="27"/>
-      <c r="O7" s="27" t="s">
-        <v>5</v>
+      <c r="O7" s="27">
+        <v>0</v>
       </c>
       <c r="P7" s="28"/>
       <c r="Q7" s="37"/>
@@ -10106,25 +10262,33 @@
       <c r="B8" s="2">
         <v>243</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="2">
+        <v>981</v>
+      </c>
       <c r="E8" s="2"/>
       <c r="F8" s="37"/>
-      <c r="G8" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H8" s="24"/>
-      <c r="I8" s="23"/>
+      <c r="G8" s="23">
+        <v>2</v>
+      </c>
+      <c r="H8" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="I8" s="23">
+        <v>3</v>
+      </c>
       <c r="J8" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K8" s="26"/>
-      <c r="L8" s="23"/>
+      <c r="L8" s="23">
+        <v>50</v>
+      </c>
       <c r="M8" s="23" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N8" s="27"/>
-      <c r="O8" s="27" t="s">
-        <v>5</v>
+      <c r="O8" s="27">
+        <v>0</v>
       </c>
       <c r="P8" s="28"/>
       <c r="Q8" s="37"/>
@@ -10137,27 +10301,37 @@
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
         <v>2024</v>
       </c>
-      <c r="D9" s="2"/>
+      <c r="D9" s="2">
+        <v>982</v>
+      </c>
       <c r="E9" s="2"/>
       <c r="F9" s="37"/>
-      <c r="G9" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H9" s="24"/>
-      <c r="I9" s="23"/>
+      <c r="G9" s="23">
+        <v>3</v>
+      </c>
+      <c r="H9" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="I9" s="23">
+        <v>1</v>
+      </c>
       <c r="J9" s="25" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="K9" s="26"/>
       <c r="L9" s="23"/>
       <c r="M9" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N9" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N9" s="27">
+        <v>1</v>
+      </c>
       <c r="O9" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P9" s="28"/>
+        <v>11</v>
+      </c>
+      <c r="P9" s="28" t="s">
+        <v>93</v>
+      </c>
       <c r="Q9" s="37"/>
     </row>
     <row r="10" spans="1:17" customHeight="1" ht="72">
@@ -10166,27 +10340,35 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44341.382638889</v>
-      </c>
-      <c r="D10" s="2"/>
+        <v>44342.629849537</v>
+      </c>
+      <c r="D10" s="2">
+        <v>983</v>
+      </c>
       <c r="E10" s="2"/>
       <c r="F10" s="37"/>
-      <c r="G10" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H10" s="24"/>
-      <c r="I10" s="23"/>
+      <c r="G10" s="23">
+        <v>4</v>
+      </c>
+      <c r="H10" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="I10" s="23">
+        <v>3</v>
+      </c>
       <c r="J10" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K10" s="26"/>
-      <c r="L10" s="23"/>
+      <c r="L10" s="23">
+        <v>50</v>
+      </c>
       <c r="M10" s="23" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N10" s="27"/>
-      <c r="O10" s="27" t="s">
-        <v>5</v>
+      <c r="O10" s="27">
+        <v>0</v>
       </c>
       <c r="P10" s="28"/>
       <c r="Q10" s="37"/>
@@ -11280,7 +11462,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44341.382638889</v>
+        <v>44342.629849537</v>
       </c>
       <c r="D10" s="2">
         <v>142</v>
@@ -11499,121 +11681,163 @@
       <c r="Q17" s="37"/>
     </row>
     <row r="18" spans="1:17" customHeight="1" ht="72">
-      <c r="D18" s="2"/>
+      <c r="D18" s="2">
+        <v>974</v>
+      </c>
       <c r="E18" s="2"/>
       <c r="F18" s="37"/>
-      <c r="G18" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H18" s="24"/>
-      <c r="I18" s="23"/>
+      <c r="G18" s="23">
+        <v>1</v>
+      </c>
+      <c r="H18" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="I18" s="23">
+        <v>3</v>
+      </c>
       <c r="J18" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K18" s="26"/>
-      <c r="L18" s="23"/>
+      <c r="L18" s="23">
+        <v>100</v>
+      </c>
       <c r="M18" s="23" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N18" s="27"/>
-      <c r="O18" s="27" t="s">
-        <v>5</v>
+      <c r="O18" s="27">
+        <v>0</v>
       </c>
       <c r="P18" s="28"/>
       <c r="Q18" s="37"/>
     </row>
     <row r="19" spans="1:17" customHeight="1" ht="72">
-      <c r="D19" s="2"/>
+      <c r="D19" s="2">
+        <v>975</v>
+      </c>
       <c r="E19" s="2"/>
       <c r="F19" s="37"/>
-      <c r="G19" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H19" s="24"/>
-      <c r="I19" s="23"/>
+      <c r="G19" s="23">
+        <v>2</v>
+      </c>
+      <c r="H19" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="I19" s="23">
+        <v>3</v>
+      </c>
       <c r="J19" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K19" s="26"/>
-      <c r="L19" s="23"/>
+      <c r="L19" s="23">
+        <v>100</v>
+      </c>
       <c r="M19" s="23" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N19" s="27"/>
-      <c r="O19" s="27" t="s">
-        <v>5</v>
+      <c r="O19" s="27">
+        <v>0</v>
       </c>
       <c r="P19" s="28"/>
       <c r="Q19" s="37"/>
     </row>
     <row r="20" spans="1:17" customHeight="1" ht="72">
-      <c r="D20" s="2"/>
+      <c r="D20" s="2">
+        <v>976</v>
+      </c>
       <c r="E20" s="2"/>
       <c r="F20" s="37"/>
-      <c r="G20" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H20" s="24"/>
-      <c r="I20" s="23"/>
+      <c r="G20" s="23">
+        <v>3</v>
+      </c>
+      <c r="H20" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="I20" s="23">
+        <v>2</v>
+      </c>
       <c r="J20" s="25" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="K20" s="26"/>
       <c r="L20" s="23"/>
       <c r="M20" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N20" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N20" s="27">
+        <v>1</v>
+      </c>
       <c r="O20" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P20" s="28"/>
+        <v>11</v>
+      </c>
+      <c r="P20" s="28" t="s">
+        <v>98</v>
+      </c>
       <c r="Q20" s="37"/>
     </row>
     <row r="21" spans="1:17" customHeight="1" ht="72">
-      <c r="D21" s="2"/>
+      <c r="D21" s="2">
+        <v>977</v>
+      </c>
       <c r="E21" s="2"/>
       <c r="F21" s="37"/>
-      <c r="G21" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H21" s="24"/>
-      <c r="I21" s="23"/>
+      <c r="G21" s="23">
+        <v>3</v>
+      </c>
+      <c r="H21" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="I21" s="23">
+        <v>3</v>
+      </c>
       <c r="J21" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K21" s="26"/>
-      <c r="L21" s="23"/>
+      <c r="L21" s="23">
+        <v>100</v>
+      </c>
       <c r="M21" s="23" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N21" s="27"/>
-      <c r="O21" s="27" t="s">
-        <v>5</v>
+      <c r="O21" s="27">
+        <v>0</v>
       </c>
       <c r="P21" s="28"/>
       <c r="Q21" s="37"/>
     </row>
     <row r="22" spans="1:17" customHeight="1" ht="72">
-      <c r="D22" s="2"/>
+      <c r="D22" s="2">
+        <v>978</v>
+      </c>
       <c r="E22" s="2"/>
       <c r="F22" s="37"/>
-      <c r="G22" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H22" s="24"/>
-      <c r="I22" s="23"/>
+      <c r="G22" s="23">
+        <v>4</v>
+      </c>
+      <c r="H22" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="I22" s="23">
+        <v>3</v>
+      </c>
       <c r="J22" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K22" s="26"/>
-      <c r="L22" s="23"/>
+      <c r="L22" s="23">
+        <v>100</v>
+      </c>
       <c r="M22" s="23" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N22" s="27"/>
-      <c r="O22" s="27" t="s">
-        <v>5</v>
+      <c r="O22" s="27">
+        <v>0</v>
       </c>
       <c r="P22" s="28"/>
       <c r="Q22" s="37"/>

--- a/public/cohort/fileExcel/xlsxUIT/GS PTA en onderwijsprogramma.xlsx
+++ b/public/cohort/fileExcel/xlsxUIT/GS PTA en onderwijsprogramma.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="126">
   <si>
     <t>betekenis kleuren</t>
   </si>
@@ -915,6 +915,9 @@
   </si>
   <si>
     <t>Staatsinrichting. De industriële samenleving in Nederland en Eerste Wereldoorlog</t>
+  </si>
+  <si>
+    <t>kies...</t>
   </si>
   <si>
     <t>GS/K/1, GS/K/2, GS/K/3, GS/K/5, GS/K/6, GS/V/7</t>
@@ -2268,7 +2271,7 @@
         <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -2622,7 +2625,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44377.541076389</v>
+        <v>44378.45130787</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -2994,7 +2997,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="28" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I18" s="45">
         <v>3</v>
@@ -3010,8 +3013,8 @@
         <v>11</v>
       </c>
       <c r="N18" s="46"/>
-      <c r="O18" s="31">
-        <v>0</v>
+      <c r="O18" s="31" t="s">
+        <v>73</v>
       </c>
       <c r="P18" s="32"/>
       <c r="R18" s="7">
@@ -3084,7 +3087,7 @@
         <v>2</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I19" s="45">
         <v>3</v>
@@ -3100,8 +3103,8 @@
         <v>11</v>
       </c>
       <c r="N19" s="46"/>
-      <c r="O19" s="31">
-        <v>0</v>
+      <c r="O19" s="31" t="s">
+        <v>73</v>
       </c>
       <c r="P19" s="32"/>
       <c r="R19" s="7">
@@ -3174,7 +3177,7 @@
         <v>3</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I20" s="45">
         <v>2</v>
@@ -3191,10 +3194,10 @@
         <v>1</v>
       </c>
       <c r="O20" s="31" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="P20" s="32" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="R20" s="7">
         <f>IF(OR(AND($G20&lt;&gt;instellingen!$G$2,ISBLANK($H20)),AND($G20=instellingen!$G$2,$H20&lt;&gt;"")),1,0)</f>
@@ -3266,7 +3269,7 @@
         <v>3</v>
       </c>
       <c r="H21" s="28" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I21" s="45">
         <v>3</v>
@@ -3282,8 +3285,8 @@
         <v>11</v>
       </c>
       <c r="N21" s="46"/>
-      <c r="O21" s="31">
-        <v>0</v>
+      <c r="O21" s="31" t="s">
+        <v>73</v>
       </c>
       <c r="P21" s="32"/>
       <c r="R21" s="7">
@@ -3356,7 +3359,7 @@
         <v>4</v>
       </c>
       <c r="H22" s="28" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I22" s="45">
         <v>3</v>
@@ -3372,8 +3375,8 @@
         <v>11</v>
       </c>
       <c r="N22" s="46"/>
-      <c r="O22" s="31">
-        <v>0</v>
+      <c r="O22" s="31" t="s">
+        <v>73</v>
       </c>
       <c r="P22" s="32"/>
       <c r="R22" s="7">
@@ -3691,7 +3694,7 @@
         <v>1</v>
       </c>
       <c r="H30" s="28" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I30" s="45"/>
       <c r="J30" s="29" t="s">
@@ -3708,10 +3711,10 @@
         <v>3</v>
       </c>
       <c r="O30" s="31" t="s">
-        <v>8</v>
+        <v>73</v>
       </c>
       <c r="P30" s="32" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="R30" s="7">
         <f>IF(OR(AND($G30&lt;&gt;instellingen!$G$2,ISBLANK($H30)),AND($G30=instellingen!$G$2,$H30&lt;&gt;"")),1,0)</f>
@@ -3783,7 +3786,7 @@
         <v>2</v>
       </c>
       <c r="H31" s="28" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I31" s="45"/>
       <c r="J31" s="29" t="s">
@@ -3800,10 +3803,10 @@
         <v>3</v>
       </c>
       <c r="O31" s="31" t="s">
-        <v>8</v>
+        <v>73</v>
       </c>
       <c r="P31" s="32" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="R31" s="7">
         <f>IF(OR(AND($G31&lt;&gt;instellingen!$G$2,ISBLANK($H31)),AND($G31=instellingen!$G$2,$H31&lt;&gt;"")),1,0)</f>
@@ -3875,7 +3878,7 @@
         <v>3</v>
       </c>
       <c r="H32" s="28" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="I32" s="45"/>
       <c r="J32" s="29" t="s">
@@ -3892,10 +3895,10 @@
         <v>3</v>
       </c>
       <c r="O32" s="31" t="s">
-        <v>8</v>
+        <v>73</v>
       </c>
       <c r="P32" s="32" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="R32" s="7">
         <f>IF(OR(AND($G32&lt;&gt;instellingen!$G$2,ISBLANK($H32)),AND($G32=instellingen!$G$2,$H32&lt;&gt;"")),1,0)</f>
@@ -4578,7 +4581,7 @@
         <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -4932,7 +4935,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44377.541076389</v>
+        <v>44378.45130787</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -5959,7 +5962,7 @@
         <v>1</v>
       </c>
       <c r="H30" s="28" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="I30" s="45"/>
       <c r="J30" s="29" t="s">
@@ -5976,10 +5979,10 @@
         <v>3</v>
       </c>
       <c r="O30" s="31" t="s">
-        <v>8</v>
+        <v>73</v>
       </c>
       <c r="P30" s="32" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="R30" s="7">
         <f>IF(OR(AND($G30&lt;&gt;instellingen!$G$2,ISBLANK($H30)),AND($G30=instellingen!$G$2,$H30&lt;&gt;"")),1,0)</f>
@@ -6051,7 +6054,7 @@
         <v>2</v>
       </c>
       <c r="H31" s="28" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="I31" s="45"/>
       <c r="J31" s="29" t="s">
@@ -6068,10 +6071,10 @@
         <v>3</v>
       </c>
       <c r="O31" s="31" t="s">
-        <v>8</v>
+        <v>73</v>
       </c>
       <c r="P31" s="32" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="R31" s="7">
         <f>IF(OR(AND($G31&lt;&gt;instellingen!$G$2,ISBLANK($H31)),AND($G31=instellingen!$G$2,$H31&lt;&gt;"")),1,0)</f>
@@ -6143,7 +6146,7 @@
         <v>3</v>
       </c>
       <c r="H32" s="28" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I32" s="45"/>
       <c r="J32" s="29" t="s">
@@ -6160,10 +6163,10 @@
         <v>3</v>
       </c>
       <c r="O32" s="31" t="s">
-        <v>8</v>
+        <v>73</v>
       </c>
       <c r="P32" s="32" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="R32" s="7">
         <f>IF(OR(AND($G32&lt;&gt;instellingen!$G$2,ISBLANK($H32)),AND($G32=instellingen!$G$2,$H32&lt;&gt;"")),1,0)</f>
@@ -7375,7 +7378,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44377.541076389</v>
+        <v>44378.45130787</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -7764,10 +7767,10 @@
         <v>1</v>
       </c>
       <c r="O18" s="31" t="s">
-        <v>8</v>
+        <v>73</v>
       </c>
       <c r="P18" s="32" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R18" s="7">
         <f>IF(OR(AND($G18&lt;&gt;instellingen!$G$2,ISBLANK($H18)),AND($G18=instellingen!$G$2,$H18&lt;&gt;"")),1,0)</f>
@@ -7839,7 +7842,7 @@
         <v>2</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I19" s="45"/>
       <c r="J19" s="29" t="s">
@@ -7856,10 +7859,10 @@
         <v>1</v>
       </c>
       <c r="O19" s="31" t="s">
-        <v>8</v>
+        <v>73</v>
       </c>
       <c r="P19" s="32" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R19" s="7">
         <f>IF(OR(AND($G19&lt;&gt;instellingen!$G$2,ISBLANK($H19)),AND($G19=instellingen!$G$2,$H19&lt;&gt;"")),1,0)</f>
@@ -7931,7 +7934,7 @@
         <v>3</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I20" s="45"/>
       <c r="J20" s="29" t="s">
@@ -7948,10 +7951,10 @@
         <v>1</v>
       </c>
       <c r="O20" s="31" t="s">
-        <v>8</v>
+        <v>73</v>
       </c>
       <c r="P20" s="32" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R20" s="7">
         <f>IF(OR(AND($G20&lt;&gt;instellingen!$G$2,ISBLANK($H20)),AND($G20=instellingen!$G$2,$H20&lt;&gt;"")),1,0)</f>
@@ -9641,7 +9644,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44377.541076389</v>
+        <v>44378.45130787</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -10013,7 +10016,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="28" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I18" s="45"/>
       <c r="J18" s="29" t="s">
@@ -10030,10 +10033,10 @@
         <v>1</v>
       </c>
       <c r="O18" s="31" t="s">
-        <v>8</v>
+        <v>73</v>
       </c>
       <c r="P18" s="32" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R18" s="7">
         <f>IF(OR(AND($G18&lt;&gt;instellingen!$G$2,ISBLANK($H18)),AND($G18=instellingen!$G$2,$H18&lt;&gt;"")),1,0)</f>
@@ -10105,7 +10108,7 @@
         <v>2</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I19" s="45"/>
       <c r="J19" s="29" t="s">
@@ -10122,10 +10125,10 @@
         <v>1</v>
       </c>
       <c r="O19" s="31" t="s">
-        <v>8</v>
+        <v>73</v>
       </c>
       <c r="P19" s="32" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R19" s="7">
         <f>IF(OR(AND($G19&lt;&gt;instellingen!$G$2,ISBLANK($H19)),AND($G19=instellingen!$G$2,$H19&lt;&gt;"")),1,0)</f>
@@ -10197,7 +10200,7 @@
         <v>3</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I20" s="45"/>
       <c r="J20" s="29" t="s">
@@ -10214,10 +10217,10 @@
         <v>1</v>
       </c>
       <c r="O20" s="31" t="s">
-        <v>8</v>
+        <v>73</v>
       </c>
       <c r="P20" s="32" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R20" s="7">
         <f>IF(OR(AND($G20&lt;&gt;instellingen!$G$2,ISBLANK($H20)),AND($G20=instellingen!$G$2,$H20&lt;&gt;"")),1,0)</f>
@@ -11553,7 +11556,7 @@
         <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D6" s="2">
         <v>966</v>
@@ -11563,7 +11566,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="28" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I6" s="45">
         <v>1</v>
@@ -11580,10 +11583,10 @@
         <v>1</v>
       </c>
       <c r="O6" s="31" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="P6" s="32" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R6" s="7">
         <f>IF(OR(AND($G6&lt;&gt;instellingen!$G$2,ISBLANK($H6)),AND($G6=instellingen!$G$2,$H6&lt;&gt;"")),1,0)</f>
@@ -11661,7 +11664,7 @@
         <v>1</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I7" s="45">
         <v>2</v>
@@ -11678,7 +11681,7 @@
       </c>
       <c r="N7" s="46"/>
       <c r="O7" s="31" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
       <c r="P7" s="32"/>
       <c r="R7" s="7">
@@ -11757,7 +11760,7 @@
         <v>2</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I8" s="45">
         <v>2</v>
@@ -11776,10 +11779,10 @@
         <v>2</v>
       </c>
       <c r="O8" s="31" t="s">
-        <v>8</v>
+        <v>73</v>
       </c>
       <c r="P8" s="32" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="R8" s="7">
         <f>IF(OR(AND($G8&lt;&gt;instellingen!$G$2,ISBLANK($H8)),AND($G8=instellingen!$G$2,$H8&lt;&gt;"")),1,0)</f>
@@ -11858,7 +11861,7 @@
         <v>3</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I9" s="45">
         <v>2</v>
@@ -11875,7 +11878,7 @@
       </c>
       <c r="N9" s="46"/>
       <c r="O9" s="31" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
       <c r="P9" s="32"/>
       <c r="R9" s="7">
@@ -11945,7 +11948,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44377.541076389</v>
+        <v>44378.45130787</v>
       </c>
       <c r="D10" s="2">
         <v>970</v>
@@ -11955,7 +11958,7 @@
         <v>4</v>
       </c>
       <c r="H10" s="28" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I10" s="45">
         <v>2</v>
@@ -11974,10 +11977,10 @@
         <v>2</v>
       </c>
       <c r="O10" s="31" t="s">
-        <v>8</v>
+        <v>73</v>
       </c>
       <c r="P10" s="32" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="R10" s="7">
         <f>IF(OR(AND($G10&lt;&gt;instellingen!$G$2,ISBLANK($H10)),AND($G10=instellingen!$G$2,$H10&lt;&gt;"")),1,0)</f>
@@ -13839,7 +13842,7 @@
         <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D6" s="2">
         <v>130</v>
@@ -13849,7 +13852,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="28" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I6" s="45">
         <v>1</v>
@@ -13866,10 +13869,10 @@
         <v>1</v>
       </c>
       <c r="O6" s="31" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="P6" s="32" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R6" s="7">
         <f>IF(OR(AND($G6&lt;&gt;instellingen!$G$2,ISBLANK($H6)),AND($G6=instellingen!$G$2,$H6&lt;&gt;"")),1,0)</f>
@@ -13947,7 +13950,7 @@
         <v>1</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I7" s="45">
         <v>2</v>
@@ -13964,7 +13967,7 @@
       </c>
       <c r="N7" s="46"/>
       <c r="O7" s="31" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
       <c r="P7" s="32"/>
       <c r="R7" s="7">
@@ -14043,7 +14046,7 @@
         <v>2</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I8" s="45">
         <v>2</v>
@@ -14062,10 +14065,10 @@
         <v>2</v>
       </c>
       <c r="O8" s="31" t="s">
-        <v>8</v>
+        <v>73</v>
       </c>
       <c r="P8" s="32" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="R8" s="7">
         <f>IF(OR(AND($G8&lt;&gt;instellingen!$G$2,ISBLANK($H8)),AND($G8=instellingen!$G$2,$H8&lt;&gt;"")),1,0)</f>
@@ -14144,7 +14147,7 @@
         <v>3</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I9" s="45">
         <v>2</v>
@@ -14161,7 +14164,7 @@
       </c>
       <c r="N9" s="46"/>
       <c r="O9" s="31" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
       <c r="P9" s="32"/>
       <c r="R9" s="7">
@@ -14231,7 +14234,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44377.541076389</v>
+        <v>44378.45130787</v>
       </c>
       <c r="D10" s="2">
         <v>134</v>
@@ -14241,7 +14244,7 @@
         <v>4</v>
       </c>
       <c r="H10" s="28" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I10" s="45">
         <v>2</v>
@@ -14260,10 +14263,10 @@
         <v>2</v>
       </c>
       <c r="O10" s="31" t="s">
-        <v>8</v>
+        <v>73</v>
       </c>
       <c r="P10" s="32" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="R10" s="7">
         <f>IF(OR(AND($G10&lt;&gt;instellingen!$G$2,ISBLANK($H10)),AND($G10=instellingen!$G$2,$H10&lt;&gt;"")),1,0)</f>
@@ -14615,7 +14618,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="28" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I18" s="45"/>
       <c r="J18" s="29" t="s">
@@ -14632,10 +14635,10 @@
         <v>3</v>
       </c>
       <c r="O18" s="31" t="s">
-        <v>8</v>
+        <v>73</v>
       </c>
       <c r="P18" s="32" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="R18" s="7">
         <f>IF(OR(AND($G18&lt;&gt;instellingen!$G$2,ISBLANK($H18)),AND($G18=instellingen!$G$2,$H18&lt;&gt;"")),1,0)</f>
@@ -14707,7 +14710,7 @@
         <v>2</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I19" s="45"/>
       <c r="J19" s="29" t="s">
@@ -14724,10 +14727,10 @@
         <v>3</v>
       </c>
       <c r="O19" s="31" t="s">
-        <v>8</v>
+        <v>73</v>
       </c>
       <c r="P19" s="32" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="R19" s="7">
         <f>IF(OR(AND($G19&lt;&gt;instellingen!$G$2,ISBLANK($H19)),AND($G19=instellingen!$G$2,$H19&lt;&gt;"")),1,0)</f>
@@ -14799,7 +14802,7 @@
         <v>3</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I20" s="45"/>
       <c r="J20" s="29" t="s">
@@ -14816,10 +14819,10 @@
         <v>3</v>
       </c>
       <c r="O20" s="31" t="s">
-        <v>8</v>
+        <v>73</v>
       </c>
       <c r="P20" s="32" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="R20" s="7">
         <f>IF(OR(AND($G20&lt;&gt;instellingen!$G$2,ISBLANK($H20)),AND($G20=instellingen!$G$2,$H20&lt;&gt;"")),1,0)</f>
@@ -16155,7 +16158,7 @@
         <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -16509,7 +16512,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44377.541076389</v>
+        <v>44378.45130787</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -16881,7 +16884,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="28" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I18" s="45"/>
       <c r="J18" s="29" t="s">
@@ -16898,10 +16901,10 @@
         <v>3</v>
       </c>
       <c r="O18" s="31" t="s">
-        <v>8</v>
+        <v>73</v>
       </c>
       <c r="P18" s="32" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="R18" s="7">
         <f>IF(OR(AND($G18&lt;&gt;instellingen!$G$2,ISBLANK($H18)),AND($G18=instellingen!$G$2,$H18&lt;&gt;"")),1,0)</f>
@@ -16973,7 +16976,7 @@
         <v>2</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I19" s="45"/>
       <c r="J19" s="29" t="s">
@@ -16990,10 +16993,10 @@
         <v>3</v>
       </c>
       <c r="O19" s="31" t="s">
-        <v>8</v>
+        <v>73</v>
       </c>
       <c r="P19" s="32" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="R19" s="7">
         <f>IF(OR(AND($G19&lt;&gt;instellingen!$G$2,ISBLANK($H19)),AND($G19=instellingen!$G$2,$H19&lt;&gt;"")),1,0)</f>
@@ -17065,7 +17068,7 @@
         <v>3</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I20" s="45"/>
       <c r="J20" s="29" t="s">
@@ -17082,10 +17085,10 @@
         <v>3</v>
       </c>
       <c r="O20" s="31" t="s">
-        <v>8</v>
+        <v>73</v>
       </c>
       <c r="P20" s="32" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="R20" s="7">
         <f>IF(OR(AND($G20&lt;&gt;instellingen!$G$2,ISBLANK($H20)),AND($G20=instellingen!$G$2,$H20&lt;&gt;"")),1,0)</f>
@@ -18421,7 +18424,7 @@
         <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D6" s="2">
         <v>979</v>
@@ -18431,7 +18434,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="28" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I6" s="45">
         <v>2</v>
@@ -18446,7 +18449,7 @@
       </c>
       <c r="N6" s="46"/>
       <c r="O6" s="31" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
       <c r="P6" s="32"/>
       <c r="R6" s="7">
@@ -18525,7 +18528,7 @@
         <v>1</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I7" s="45">
         <v>3</v>
@@ -18542,7 +18545,7 @@
       </c>
       <c r="N7" s="46"/>
       <c r="O7" s="31" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
       <c r="P7" s="32"/>
       <c r="R7" s="7">
@@ -18621,7 +18624,7 @@
         <v>2</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I8" s="45">
         <v>3</v>
@@ -18638,7 +18641,7 @@
       </c>
       <c r="N8" s="46"/>
       <c r="O8" s="31" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
       <c r="P8" s="32"/>
       <c r="R8" s="7">
@@ -18718,7 +18721,7 @@
         <v>3</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I9" s="45">
         <v>2</v>
@@ -18735,10 +18738,10 @@
         <v>1</v>
       </c>
       <c r="O9" s="31" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="P9" s="32" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="R9" s="7">
         <f>IF(OR(AND($G9&lt;&gt;instellingen!$G$2,ISBLANK($H9)),AND($G9=instellingen!$G$2,$H9&lt;&gt;"")),1,0)</f>
@@ -18807,7 +18810,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44377.541076389</v>
+        <v>44378.45130787</v>
       </c>
       <c r="D10" s="2">
         <v>983</v>
@@ -18817,7 +18820,7 @@
         <v>3</v>
       </c>
       <c r="H10" s="28" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I10" s="45">
         <v>3</v>
@@ -18834,7 +18837,7 @@
       </c>
       <c r="N10" s="46"/>
       <c r="O10" s="31" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
       <c r="P10" s="32"/>
       <c r="R10" s="7">
@@ -18907,14 +18910,14 @@
         <v>2020</v>
       </c>
       <c r="D11" s="2">
-        <v>1107</v>
+        <v>1115</v>
       </c>
       <c r="E11" s="2"/>
       <c r="G11" s="27">
         <v>4</v>
       </c>
       <c r="H11" s="28" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I11" s="45">
         <v>3</v>
@@ -18931,7 +18934,7 @@
       </c>
       <c r="N11" s="46"/>
       <c r="O11" s="31" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
       <c r="P11" s="32"/>
       <c r="R11" s="7">
@@ -20707,7 +20710,7 @@
         <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D6" s="2">
         <v>138</v>
@@ -20717,7 +20720,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="28" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I6" s="45">
         <v>2</v>
@@ -20733,8 +20736,8 @@
         <v>11</v>
       </c>
       <c r="N6" s="46"/>
-      <c r="O6" s="31">
-        <v>0</v>
+      <c r="O6" s="31" t="s">
+        <v>73</v>
       </c>
       <c r="P6" s="32"/>
       <c r="R6" s="7">
@@ -20813,7 +20816,7 @@
         <v>1</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I7" s="45">
         <v>3</v>
@@ -20829,8 +20832,8 @@
         <v>11</v>
       </c>
       <c r="N7" s="46"/>
-      <c r="O7" s="31">
-        <v>0</v>
+      <c r="O7" s="31" t="s">
+        <v>73</v>
       </c>
       <c r="P7" s="32"/>
       <c r="R7" s="7">
@@ -20909,7 +20912,7 @@
         <v>2</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I8" s="45">
         <v>3</v>
@@ -20925,8 +20928,8 @@
         <v>11</v>
       </c>
       <c r="N8" s="46"/>
-      <c r="O8" s="31">
-        <v>0</v>
+      <c r="O8" s="31" t="s">
+        <v>73</v>
       </c>
       <c r="P8" s="32"/>
       <c r="R8" s="7">
@@ -21006,7 +21009,7 @@
         <v>3</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I9" s="45">
         <v>1</v>
@@ -21023,10 +21026,10 @@
         <v>1</v>
       </c>
       <c r="O9" s="31" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="P9" s="32" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="R9" s="7">
         <f>IF(OR(AND($G9&lt;&gt;instellingen!$G$2,ISBLANK($H9)),AND($G9=instellingen!$G$2,$H9&lt;&gt;"")),1,0)</f>
@@ -21095,7 +21098,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44377.541076389</v>
+        <v>44378.45130787</v>
       </c>
       <c r="D10" s="2">
         <v>142</v>
@@ -21105,7 +21108,7 @@
         <v>4</v>
       </c>
       <c r="H10" s="28" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I10" s="45">
         <v>3</v>
@@ -21121,8 +21124,8 @@
         <v>11</v>
       </c>
       <c r="N10" s="46"/>
-      <c r="O10" s="31">
-        <v>0</v>
+      <c r="O10" s="31" t="s">
+        <v>73</v>
       </c>
       <c r="P10" s="32"/>
       <c r="R10" s="7">
@@ -21475,7 +21478,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="28" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I18" s="45">
         <v>3</v>
@@ -21492,7 +21495,7 @@
       </c>
       <c r="N18" s="46"/>
       <c r="O18" s="31" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
       <c r="P18" s="32"/>
       <c r="R18" s="7">
@@ -21565,7 +21568,7 @@
         <v>2</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I19" s="45">
         <v>3</v>
@@ -21581,8 +21584,8 @@
         <v>11</v>
       </c>
       <c r="N19" s="46"/>
-      <c r="O19" s="31">
-        <v>0</v>
+      <c r="O19" s="31" t="s">
+        <v>73</v>
       </c>
       <c r="P19" s="32"/>
       <c r="R19" s="7">
@@ -21655,7 +21658,7 @@
         <v>3</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I20" s="45">
         <v>2</v>
@@ -21672,10 +21675,10 @@
         <v>1</v>
       </c>
       <c r="O20" s="31" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="P20" s="32" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="R20" s="7">
         <f>IF(OR(AND($G20&lt;&gt;instellingen!$G$2,ISBLANK($H20)),AND($G20=instellingen!$G$2,$H20&lt;&gt;"")),1,0)</f>
@@ -21747,7 +21750,7 @@
         <v>3</v>
       </c>
       <c r="H21" s="28" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I21" s="45">
         <v>3</v>
@@ -21763,8 +21766,8 @@
         <v>11</v>
       </c>
       <c r="N21" s="46"/>
-      <c r="O21" s="31">
-        <v>0</v>
+      <c r="O21" s="31" t="s">
+        <v>73</v>
       </c>
       <c r="P21" s="32"/>
       <c r="R21" s="7">
@@ -21837,7 +21840,7 @@
         <v>4</v>
       </c>
       <c r="H22" s="28" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I22" s="45">
         <v>3</v>
@@ -21853,8 +21856,8 @@
         <v>11</v>
       </c>
       <c r="N22" s="46"/>
-      <c r="O22" s="31">
-        <v>0</v>
+      <c r="O22" s="31" t="s">
+        <v>73</v>
       </c>
       <c r="P22" s="32"/>
       <c r="R22" s="7">
